--- a/python/multiscalepy/multiscale/modelcreator/models/glucose/glucose_annotations.xlsx
+++ b/python/multiscalepy/multiscale/modelcreator/models/glucose/glucose_annotations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="740" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="754" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Annotations" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="330">
   <si>
     <t>pattern</t>
   </si>
@@ -899,6 +899,18 @@
   </si>
   <si>
     <t>CHEBI:15346</t>
+  </si>
+  <si>
+    <t># rules</t>
+  </si>
+  <si>
+    <t>^[\w_]*_tot$</t>
+  </si>
+  <si>
+    <t>SBO:0000359</t>
+  </si>
+  <si>
+    <t>mass conservation law</t>
   </si>
   <si>
     <t>sbmlType</t>
@@ -1006,7 +1018,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="MM/DD/YY"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1039,6 +1051,21 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1113,7 +1140,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1186,7 +1213,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1267,12 +1318,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G334"/>
+  <dimension ref="A1:G337"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A285" activeCellId="0" sqref="A285:A286"/>
+      <selection pane="bottomLeft" activeCell="B337" activeCellId="0" sqref="B337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6370,6 +6421,35 @@
       </c>
       <c r="F334" s="12" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="336" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="D336" s="20"/>
+    </row>
+    <row r="337" s="23" customFormat="true" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="B337" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C337" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D337" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="E337" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F337" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G337" s="22" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -6391,7 +6471,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H25" activeCellId="1" sqref="A285:A286 H25"/>
+      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6405,20 +6485,20 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="A1" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>296</v>
+      <c r="D1" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6429,30 +6509,30 @@
         <v>11</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6460,13 +6540,13 @@
         <v>186</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6474,13 +6554,13 @@
         <v>47</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6488,39 +6568,39 @@
         <v>73</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>14</v>
@@ -6528,15 +6608,15 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>90</v>
@@ -6544,7 +6624,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>23</v>
@@ -6552,10 +6632,10 @@
     </row>
     <row r="14" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="0" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -6577,7 +6657,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A285:A286 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/python/multiscalepy/multiscale/modelcreator/models/glucose/glucose_annotations.xlsx
+++ b/python/multiscalepy/multiscale/modelcreator/models/glucose/glucose_annotations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="250" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="255" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="397">
   <si>
     <t>pattern</t>
   </si>
@@ -494,7 +494,7 @@
     <t>3.1.3.46</t>
   </si>
   <si>
-    <t>R02731</t>
+    <t>R00763</t>
   </si>
   <si>
     <t>^PFK1$</t>
@@ -782,10 +782,19 @@
     <t>^amp[_]*\w*$</t>
   </si>
   <si>
+    <t>CHEBI:456215</t>
+  </si>
+  <si>
+    <t>AMP(2-)</t>
+  </si>
+  <si>
     <t>C00020</t>
   </si>
   <si>
-    <t>CHEBI:16027</t>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>C10H12N5O7P</t>
   </si>
   <si>
     <t>^utp[_]*\w*$</t>
@@ -830,7 +839,13 @@
     <t>C00044</t>
   </si>
   <si>
-    <t>CHEBI:15996</t>
+    <t>CHEBI:37565</t>
+  </si>
+  <si>
+    <t>GTP(4-)</t>
+  </si>
+  <si>
+    <t>C10H12N5O14P3</t>
   </si>
   <si>
     <t>^gdp[_]*\w*$</t>
@@ -839,7 +854,16 @@
     <t>C00035</t>
   </si>
   <si>
-    <t>CHEBI:17552</t>
+    <t>CHEBI:58189</t>
+  </si>
+  <si>
+    <t>GDP(3−)</t>
+  </si>
+  <si>
+    <t>C10H12N5O11P2</t>
+  </si>
+  <si>
+    <t>-3</t>
   </si>
   <si>
     <t>^nad[_]*\w*$</t>
@@ -1055,7 +1079,13 @@
     <t>C00665</t>
   </si>
   <si>
-    <t>CHEBI:28602</t>
+    <t>CHEBI:58579</t>
+  </si>
+  <si>
+    <t>β-D-fructofuranose 2,6-bisphosphate(4−)</t>
+  </si>
+  <si>
+    <t>C6H10O12P2</t>
   </si>
   <si>
     <t>^grap[_]*\w*$</t>
@@ -1363,11 +1393,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1447,10 +1477,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G398"/>
+  <dimension ref="A1:G411"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D109" activeCellId="0" sqref="D109"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A116" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D132" activeCellId="0" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1459,7 +1489,7 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="27.4387755102041"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.3061224489796"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.7551020408163"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="30.0408163265306"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="36.734693877551"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="18.7551020408163"/>
   </cols>
   <sheetData>
@@ -3469,7 +3499,7 @@
       <c r="F108" s="16"/>
       <c r="G108" s="16"/>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="14" t="s">
         <v>142</v>
       </c>
@@ -3564,7 +3594,7 @@
       <c r="F113" s="16"/>
       <c r="G113" s="16"/>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="14" t="s">
         <v>145</v>
       </c>
@@ -3618,50 +3648,48 @@
       <c r="C116" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="7" t="n">
+        <v>27689</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G116" s="0"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E116" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F116" s="7" t="s">
+      <c r="E117" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F117" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G116" s="0"/>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="16"/>
-      <c r="B117" s="16"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="17"/>
-      <c r="E117" s="16"/>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16"/>
+      <c r="G117" s="0"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D118" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="16"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="14" t="s">
         <v>148</v>
       </c>
@@ -3671,16 +3699,18 @@
       <c r="C119" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D119" s="7" t="s">
-        <v>146</v>
+      <c r="D119" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G119" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="G119" s="14" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="14" t="s">
@@ -3693,28 +3723,40 @@
         <v>11</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E120" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G120" s="0"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="16"/>
-      <c r="B121" s="16"/>
-      <c r="C121" s="16"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
+      <c r="A121" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" s="7" t="n">
+        <v>25101</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G121" s="0"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>102</v>
@@ -3722,41 +3764,27 @@
       <c r="C122" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D122" s="13" t="s">
-        <v>109</v>
+      <c r="D122" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="E122" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" s="14" t="s">
-        <v>110</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D123" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G123" s="0"/>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="16"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="14" t="s">
         <v>150</v>
       </c>
@@ -3766,29 +3794,43 @@
       <c r="C124" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D124" s="7" t="s">
-        <v>152</v>
+      <c r="D124" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G124" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="G124" s="14" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="16"/>
-      <c r="B125" s="16"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="17"/>
-      <c r="E125" s="16"/>
-      <c r="F125" s="16"/>
-      <c r="G125" s="16"/>
+      <c r="A125" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G125" s="0"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>102</v>
@@ -3796,22 +3838,20 @@
       <c r="C126" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D126" s="13" t="s">
-        <v>109</v>
+      <c r="D126" s="7" t="n">
+        <v>12976</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" s="14" t="s">
-        <v>110</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G126" s="0"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>102</v>
@@ -3820,38 +3860,26 @@
         <v>11</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E127" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G127" s="0"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G128" s="0"/>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="16"/>
+      <c r="B128" s="16"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="16"/>
+      <c r="G128" s="16"/>
+    </row>
+    <row r="129" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="14" t="s">
         <v>153</v>
       </c>
@@ -3861,29 +3889,43 @@
       <c r="C129" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D129" s="7" t="s">
-        <v>156</v>
+      <c r="D129" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G129" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="G129" s="14" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="16"/>
-      <c r="B130" s="16"/>
-      <c r="C130" s="16"/>
-      <c r="D130" s="17"/>
-      <c r="E130" s="16"/>
-      <c r="F130" s="16"/>
-      <c r="G130" s="16"/>
+      <c r="A130" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G130" s="0"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>102</v>
@@ -3891,22 +3933,20 @@
       <c r="C131" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D131" s="13" t="s">
-        <v>109</v>
+      <c r="D131" s="7" t="n">
+        <v>15654</v>
       </c>
       <c r="E131" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" s="14" t="s">
-        <v>110</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G131" s="0"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>102</v>
@@ -3915,70 +3955,72 @@
         <v>11</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E132" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G132" s="0"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G133" s="0"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="16"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="16"/>
+    </row>
+    <row r="135" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B133" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G133" s="0"/>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E134" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F134" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G134" s="0"/>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="16"/>
-      <c r="B135" s="16"/>
-      <c r="C135" s="16"/>
-      <c r="D135" s="17"/>
-      <c r="E135" s="16"/>
-      <c r="F135" s="16"/>
-      <c r="G135" s="16"/>
+      <c r="B135" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135" s="14" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>102</v>
@@ -3986,22 +4028,20 @@
       <c r="C136" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D136" s="13" t="s">
-        <v>109</v>
+      <c r="D136" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" s="14" t="s">
-        <v>110</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G136" s="0"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>102</v>
@@ -4009,20 +4049,20 @@
       <c r="C137" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D137" s="7" t="s">
-        <v>161</v>
+      <c r="D137" s="7" t="n">
+        <v>17290</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G137" s="0"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>102</v>
@@ -4031,7 +4071,7 @@
         <v>11</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E138" s="7" t="s">
         <v>22</v>
@@ -4043,7 +4083,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>102</v>
@@ -4052,7 +4092,7 @@
         <v>11</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E139" s="7" t="s">
         <v>22</v>
@@ -4071,9 +4111,9 @@
       <c r="F140" s="16"/>
       <c r="G140" s="16"/>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="14" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>102</v>
@@ -4096,7 +4136,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="14" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>102</v>
@@ -4105,7 +4145,7 @@
         <v>11</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E142" s="7" t="s">
         <v>22</v>
@@ -4117,7 +4157,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="14" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>102</v>
@@ -4126,7 +4166,7 @@
         <v>11</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E143" s="7" t="s">
         <v>22</v>
@@ -4138,7 +4178,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="14" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>102</v>
@@ -4147,7 +4187,7 @@
         <v>11</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E144" s="7" t="s">
         <v>22</v>
@@ -4158,38 +4198,40 @@
       <c r="G144" s="0"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="14" t="s">
+      <c r="A145" s="16"/>
+      <c r="B145" s="16"/>
+      <c r="C145" s="16"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="16"/>
+      <c r="F145" s="16"/>
+      <c r="G145" s="16"/>
+    </row>
+    <row r="146" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="B145" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G145" s="0"/>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="16"/>
-      <c r="B146" s="16"/>
-      <c r="C146" s="16"/>
-      <c r="D146" s="17"/>
-      <c r="E146" s="16"/>
-      <c r="F146" s="16"/>
-      <c r="G146" s="16"/>
+      <c r="B146" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G146" s="14" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="14" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>102</v>
@@ -4197,22 +4239,20 @@
       <c r="C147" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D147" s="13" t="s">
-        <v>109</v>
+      <c r="D147" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="E147" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" s="14" t="s">
-        <v>110</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G147" s="0"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="14" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>102</v>
@@ -4221,19 +4261,19 @@
         <v>11</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E148" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G148" s="0"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="14" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>102</v>
@@ -4242,19 +4282,19 @@
         <v>11</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E149" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G149" s="0"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="14" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>102</v>
@@ -4263,7 +4303,7 @@
         <v>11</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E150" s="7" t="s">
         <v>22</v>
@@ -4282,9 +4322,9 @@
       <c r="F151" s="16"/>
       <c r="G151" s="16"/>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>102</v>
@@ -4307,7 +4347,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>102</v>
@@ -4316,7 +4356,7 @@
         <v>11</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E153" s="7" t="s">
         <v>22</v>
@@ -4328,7 +4368,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>102</v>
@@ -4337,7 +4377,7 @@
         <v>11</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E154" s="7" t="s">
         <v>22</v>
@@ -4349,7 +4389,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>102</v>
@@ -4358,7 +4398,7 @@
         <v>11</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E155" s="7" t="s">
         <v>22</v>
@@ -4377,9 +4417,9 @@
       <c r="F156" s="16"/>
       <c r="G156" s="16"/>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="14" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>102</v>
@@ -4402,7 +4442,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="14" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>102</v>
@@ -4411,7 +4451,7 @@
         <v>11</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E158" s="7" t="s">
         <v>22</v>
@@ -4423,7 +4463,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="14" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>102</v>
@@ -4432,7 +4472,7 @@
         <v>11</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E159" s="7" t="s">
         <v>22</v>
@@ -4444,7 +4484,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="14" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>102</v>
@@ -4453,7 +4493,7 @@
         <v>11</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E160" s="7" t="s">
         <v>22</v>
@@ -4472,9 +4512,9 @@
       <c r="F161" s="16"/>
       <c r="G161" s="16"/>
     </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B162" s="7" t="s">
         <v>102</v>
@@ -4497,7 +4537,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>102</v>
@@ -4506,7 +4546,7 @@
         <v>11</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E163" s="7" t="s">
         <v>22</v>
@@ -4518,7 +4558,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>102</v>
@@ -4527,7 +4567,7 @@
         <v>11</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E164" s="7" t="s">
         <v>22</v>
@@ -4539,7 +4579,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>102</v>
@@ -4548,13 +4588,13 @@
         <v>11</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E165" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G165" s="0"/>
     </row>
@@ -4567,9 +4607,9 @@
       <c r="F166" s="16"/>
       <c r="G166" s="16"/>
     </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>102</v>
@@ -4592,7 +4632,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B168" s="7" t="s">
         <v>102</v>
@@ -4601,7 +4641,7 @@
         <v>11</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E168" s="7" t="s">
         <v>22</v>
@@ -4613,7 +4653,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B169" s="7" t="s">
         <v>102</v>
@@ -4622,7 +4662,7 @@
         <v>11</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E169" s="7" t="s">
         <v>22</v>
@@ -4634,7 +4674,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B170" s="7" t="s">
         <v>102</v>
@@ -4643,13 +4683,13 @@
         <v>11</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E170" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="G170" s="0"/>
     </row>
@@ -4662,9 +4702,9 @@
       <c r="F171" s="16"/>
       <c r="G171" s="16"/>
     </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>102</v>
@@ -4687,7 +4727,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>102</v>
@@ -4696,7 +4736,7 @@
         <v>11</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E173" s="7" t="s">
         <v>22</v>
@@ -4708,7 +4748,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B174" s="7" t="s">
         <v>102</v>
@@ -4717,7 +4757,7 @@
         <v>11</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E174" s="7" t="s">
         <v>22</v>
@@ -4729,7 +4769,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>102</v>
@@ -4738,7 +4778,7 @@
         <v>11</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E175" s="7" t="s">
         <v>22</v>
@@ -4749,27 +4789,15 @@
       <c r="G175" s="0"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D176" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E176" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F176" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G176" s="0"/>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="16"/>
+      <c r="B176" s="16"/>
+      <c r="C176" s="16"/>
+      <c r="D176" s="17"/>
+      <c r="E176" s="16"/>
+      <c r="F176" s="16"/>
+      <c r="G176" s="16"/>
+    </row>
+    <row r="177" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="14" t="s">
         <v>189</v>
       </c>
@@ -4779,29 +4807,43 @@
       <c r="C177" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D177" s="7" t="s">
-        <v>194</v>
+      <c r="D177" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="E177" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G177" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="G177" s="14" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="16"/>
-      <c r="B178" s="16"/>
-      <c r="C178" s="16"/>
-      <c r="D178" s="17"/>
-      <c r="E178" s="16"/>
-      <c r="F178" s="16"/>
-      <c r="G178" s="16"/>
+      <c r="A178" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F178" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G178" s="0"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="14" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>102</v>
@@ -4809,22 +4851,20 @@
       <c r="C179" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D179" s="13" t="s">
-        <v>109</v>
+      <c r="D179" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="E179" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G179" s="14" t="s">
-        <v>110</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G179" s="0"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="14" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>102</v>
@@ -4833,19 +4873,19 @@
         <v>11</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E180" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="G180" s="0"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="14" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>102</v>
@@ -4854,19 +4894,19 @@
         <v>11</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E181" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G181" s="0"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="14" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>102</v>
@@ -4875,7 +4915,7 @@
         <v>11</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E182" s="7" t="s">
         <v>22</v>
@@ -4894,9 +4934,9 @@
       <c r="F183" s="16"/>
       <c r="G183" s="16"/>
     </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="14" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>102</v>
@@ -4919,7 +4959,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="14" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>102</v>
@@ -4927,8 +4967,8 @@
       <c r="C185" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D185" s="13" t="s">
-        <v>200</v>
+      <c r="D185" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="E185" s="7" t="s">
         <v>22</v>
@@ -4940,7 +4980,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="14" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>102</v>
@@ -4949,7 +4989,7 @@
         <v>11</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E186" s="7" t="s">
         <v>22</v>
@@ -4961,7 +5001,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="14" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>102</v>
@@ -4970,7 +5010,7 @@
         <v>11</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E187" s="7" t="s">
         <v>22</v>
@@ -4989,9 +5029,9 @@
       <c r="F188" s="16"/>
       <c r="G188" s="16"/>
     </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>102</v>
@@ -5012,9 +5052,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>102</v>
@@ -5035,7 +5075,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>102</v>
@@ -5056,7 +5096,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>102</v>
@@ -5065,7 +5105,7 @@
         <v>11</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E192" s="7" t="s">
         <v>22</v>
@@ -5084,9 +5124,9 @@
       <c r="F193" s="16"/>
       <c r="G193" s="16"/>
     </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>102</v>
@@ -5107,9 +5147,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>102</v>
@@ -5117,8 +5157,8 @@
       <c r="C195" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D195" s="7" t="s">
-        <v>206</v>
+      <c r="D195" s="13" t="s">
+        <v>200</v>
       </c>
       <c r="E195" s="7" t="s">
         <v>22</v>
@@ -5130,7 +5170,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B196" s="7" t="s">
         <v>102</v>
@@ -5139,7 +5179,7 @@
         <v>11</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E196" s="7" t="s">
         <v>22</v>
@@ -5151,7 +5191,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>102</v>
@@ -5160,7 +5200,7 @@
         <v>11</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E197" s="7" t="s">
         <v>22</v>
@@ -5179,9 +5219,9 @@
       <c r="F198" s="16"/>
       <c r="G198" s="16"/>
     </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>102</v>
@@ -5204,7 +5244,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>102</v>
@@ -5213,7 +5253,7 @@
         <v>11</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E200" s="7" t="s">
         <v>22</v>
@@ -5225,7 +5265,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B201" s="7" t="s">
         <v>102</v>
@@ -5234,7 +5274,7 @@
         <v>11</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E201" s="7" t="s">
         <v>22</v>
@@ -5246,7 +5286,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B202" s="7" t="s">
         <v>102</v>
@@ -5255,7 +5295,7 @@
         <v>11</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E202" s="7" t="s">
         <v>22</v>
@@ -5266,27 +5306,15 @@
       <c r="G202" s="0"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B203" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C203" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D203" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E203" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F203" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G203" s="0"/>
-    </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="16"/>
+      <c r="B203" s="16"/>
+      <c r="C203" s="16"/>
+      <c r="D203" s="17"/>
+      <c r="E203" s="16"/>
+      <c r="F203" s="16"/>
+      <c r="G203" s="16"/>
+    </row>
+    <row r="204" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="14" t="s">
         <v>209</v>
       </c>
@@ -5296,29 +5324,43 @@
       <c r="C204" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D204" s="7" t="s">
-        <v>214</v>
+      <c r="D204" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="E204" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G204" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="G204" s="14" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="16"/>
-      <c r="B205" s="16"/>
-      <c r="C205" s="16"/>
-      <c r="D205" s="17"/>
-      <c r="E205" s="16"/>
-      <c r="F205" s="16"/>
-      <c r="G205" s="16"/>
+      <c r="A205" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E205" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F205" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G205" s="0"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="14" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B206" s="7" t="s">
         <v>102</v>
@@ -5326,22 +5368,20 @@
       <c r="C206" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D206" s="13" t="s">
-        <v>109</v>
+      <c r="D206" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="E206" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G206" s="14" t="s">
-        <v>110</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G206" s="0"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="14" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B207" s="7" t="s">
         <v>102</v>
@@ -5349,20 +5389,20 @@
       <c r="C207" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D207" s="13" t="s">
-        <v>216</v>
+      <c r="D207" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="E207" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="G207" s="0"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="14" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>102</v>
@@ -5371,19 +5411,19 @@
         <v>11</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E208" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G208" s="0"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="14" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>102</v>
@@ -5392,7 +5432,7 @@
         <v>11</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E209" s="7" t="s">
         <v>22</v>
@@ -5403,27 +5443,15 @@
       <c r="G209" s="0"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B210" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D210" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E210" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F210" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G210" s="0"/>
-    </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="16"/>
+      <c r="B210" s="16"/>
+      <c r="C210" s="16"/>
+      <c r="D210" s="17"/>
+      <c r="E210" s="16"/>
+      <c r="F210" s="16"/>
+      <c r="G210" s="16"/>
+    </row>
+    <row r="211" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="14" t="s">
         <v>215</v>
       </c>
@@ -5433,18 +5461,20 @@
       <c r="C211" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D211" s="7" t="s">
-        <v>220</v>
+      <c r="D211" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="E211" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G211" s="0"/>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+      <c r="G211" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="14" t="s">
         <v>215</v>
       </c>
@@ -5454,14 +5484,14 @@
       <c r="C212" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D212" s="7" t="s">
-        <v>221</v>
+      <c r="D212" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="E212" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="G212" s="0"/>
     </row>
@@ -5476,28 +5506,40 @@
         <v>11</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E213" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F213" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G213" s="0"/>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E214" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F214" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G213" s="0"/>
-    </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="16"/>
-      <c r="B214" s="16"/>
-      <c r="C214" s="16"/>
-      <c r="D214" s="17"/>
-      <c r="E214" s="16"/>
-      <c r="F214" s="16"/>
-      <c r="G214" s="16"/>
+      <c r="G214" s="0"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="14" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>102</v>
@@ -5505,22 +5547,20 @@
       <c r="C215" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D215" s="13" t="s">
-        <v>109</v>
+      <c r="D215" s="7" t="s">
+        <v>219</v>
       </c>
       <c r="E215" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G215" s="14" t="s">
-        <v>110</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G215" s="0"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="14" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B216" s="7" t="s">
         <v>102</v>
@@ -5529,19 +5569,19 @@
         <v>11</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E216" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="G216" s="0"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="14" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B217" s="7" t="s">
         <v>102</v>
@@ -5550,19 +5590,19 @@
         <v>11</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E217" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G217" s="0"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="14" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>102</v>
@@ -5571,7 +5611,7 @@
         <v>11</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E218" s="7" t="s">
         <v>22</v>
@@ -5590,9 +5630,9 @@
       <c r="F219" s="16"/>
       <c r="G219" s="16"/>
     </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="14" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>102</v>
@@ -5615,7 +5655,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="14" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>102</v>
@@ -5624,7 +5664,7 @@
         <v>11</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c r="E221" s="7" t="s">
         <v>22</v>
@@ -5636,7 +5676,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="14" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>102</v>
@@ -5645,7 +5685,7 @@
         <v>11</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="E222" s="7" t="s">
         <v>22</v>
@@ -5656,37 +5696,47 @@
       <c r="G222" s="0"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0"/>
-      <c r="B223" s="0"/>
-      <c r="C223" s="0"/>
-      <c r="D223" s="15"/>
-      <c r="E223" s="0"/>
-      <c r="F223" s="0"/>
+      <c r="A223" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E223" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F223" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="G223" s="0"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B224" s="9"/>
-      <c r="C224" s="9"/>
-      <c r="D224" s="10"/>
-      <c r="E224" s="9"/>
-      <c r="F224" s="9"/>
-      <c r="G224" s="9"/>
-    </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="7" t="s">
-        <v>229</v>
+      <c r="A224" s="16"/>
+      <c r="B224" s="16"/>
+      <c r="C224" s="16"/>
+      <c r="D224" s="17"/>
+      <c r="E224" s="16"/>
+      <c r="F224" s="16"/>
+      <c r="G224" s="16"/>
+    </row>
+    <row r="225" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="14" t="s">
+        <v>227</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>230</v>
+        <v>102</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D225" s="13" t="s">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="E225" s="7" t="s">
         <v>22</v>
@@ -5695,213 +5745,209 @@
         <v>14</v>
       </c>
       <c r="G225" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E226" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F226" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G226" s="0"/>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D227" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E227" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F227" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G227" s="0"/>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0"/>
+      <c r="B228" s="0"/>
+      <c r="C228" s="0"/>
+      <c r="D228" s="15"/>
+      <c r="E228" s="0"/>
+      <c r="F228" s="0"/>
+      <c r="G228" s="0"/>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229" s="9"/>
+      <c r="C229" s="9"/>
+      <c r="D229" s="10"/>
+      <c r="E229" s="9"/>
+      <c r="F229" s="9"/>
+      <c r="G229" s="9"/>
+    </row>
+    <row r="230" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D230" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E230" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F230" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G230" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="7" t="s">
+    <row r="231" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B226" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C226" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D226" s="11" t="s">
+      <c r="B231" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D231" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="E226" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F226" s="7" t="s">
+      <c r="E231" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F231" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G226" s="12" t="s">
+      <c r="G231" s="12" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="7" t="s">
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B227" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C227" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D227" s="11" t="s">
+      <c r="B232" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D232" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="E227" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F227" s="7" t="s">
+      <c r="E232" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F232" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G227" s="14" t="s">
+      <c r="G232" s="14" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="7" t="s">
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B228" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C228" s="7" t="s">
+      <c r="B233" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C233" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D228" s="7" t="s">
+      <c r="D233" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E228" s="7"/>
-      <c r="F228" s="7"/>
-      <c r="G228" s="0"/>
-    </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="7" t="s">
+      <c r="E233" s="7"/>
+      <c r="F233" s="7"/>
+      <c r="G233" s="0"/>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B229" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C229" s="7" t="s">
+      <c r="B234" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C234" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D229" s="11" t="s">
+      <c r="D234" s="11" t="s">
         <v>240</v>
-      </c>
-      <c r="E229" s="7"/>
-      <c r="F229" s="7"/>
-      <c r="G229" s="0"/>
-    </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0"/>
-      <c r="B230" s="0"/>
-      <c r="C230" s="0"/>
-      <c r="D230" s="15"/>
-      <c r="E230" s="0"/>
-      <c r="F230" s="0"/>
-      <c r="G230" s="0"/>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B231" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C231" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D231" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E231" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F231" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G231" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B232" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C232" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D232" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="E232" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F232" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G232" s="12" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B233" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C233" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D233" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="E233" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F233" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G233" s="12" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B234" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C234" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D234" s="13" t="s">
-        <v>246</v>
       </c>
       <c r="E234" s="7"/>
       <c r="F234" s="7"/>
       <c r="G234" s="0"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="14" t="s">
+      <c r="A235" s="0"/>
+      <c r="B235" s="0"/>
+      <c r="C235" s="0"/>
+      <c r="D235" s="15"/>
+      <c r="E235" s="0"/>
+      <c r="F235" s="0"/>
+      <c r="G235" s="0"/>
+    </row>
+    <row r="236" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="B235" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C235" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D235" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E235" s="7"/>
-      <c r="F235" s="7"/>
-      <c r="G235" s="0"/>
-    </row>
-    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0"/>
-      <c r="B236" s="7"/>
-      <c r="C236" s="7"/>
-      <c r="D236" s="13"/>
-      <c r="E236" s="7"/>
-      <c r="F236" s="7"/>
-      <c r="G236" s="0"/>
-    </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B236" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D236" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E236" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F236" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G236" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="14" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B237" s="7" t="s">
         <v>230</v>
@@ -5909,22 +5955,22 @@
       <c r="C237" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D237" s="13" t="s">
-        <v>231</v>
+      <c r="D237" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="E237" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F237" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G237" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+      <c r="G237" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="14" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B238" s="7" t="s">
         <v>230</v>
@@ -5933,87 +5979,87 @@
         <v>11</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E238" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F238" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G238" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="14" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B239" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D239" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="E239" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F239" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G239" s="12" t="s">
-        <v>252</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D239" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E239" s="7"/>
+      <c r="F239" s="7"/>
+      <c r="G239" s="0"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="14" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B240" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D240" s="13" t="s">
-        <v>253</v>
+        <v>239</v>
+      </c>
+      <c r="D240" s="11" t="s">
+        <v>247</v>
       </c>
       <c r="E240" s="7"/>
       <c r="F240" s="7"/>
       <c r="G240" s="0"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="B241" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C241" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D241" s="13" t="n">
-        <v>-3</v>
-      </c>
+      <c r="A241" s="0"/>
+      <c r="B241" s="7"/>
+      <c r="C241" s="7"/>
+      <c r="D241" s="13"/>
       <c r="E241" s="7"/>
       <c r="F241" s="7"/>
       <c r="G241" s="0"/>
     </row>
-    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0"/>
-      <c r="B242" s="7"/>
-      <c r="C242" s="7"/>
-      <c r="D242" s="15"/>
-      <c r="E242" s="7"/>
-      <c r="F242" s="7"/>
-      <c r="G242" s="0"/>
-    </row>
-    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D242" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E242" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F242" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G242" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="14" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B243" s="7" t="s">
         <v>230</v>
@@ -6021,22 +6067,22 @@
       <c r="C243" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D243" s="13" t="s">
-        <v>231</v>
+      <c r="D243" s="11" t="s">
+        <v>249</v>
       </c>
       <c r="E243" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F243" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G243" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+      <c r="G243" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="14" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B244" s="7" t="s">
         <v>230</v>
@@ -6044,96 +6090,88 @@
       <c r="C244" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D244" s="7" t="s">
-        <v>255</v>
+      <c r="D244" s="11" t="s">
+        <v>251</v>
       </c>
       <c r="E244" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F244" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G244" s="0"/>
-    </row>
-    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G244" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D245" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E245" s="7"/>
+      <c r="F245" s="7"/>
+      <c r="G245" s="0"/>
+    </row>
+    <row r="246" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D246" s="13" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E246" s="7"/>
+      <c r="F246" s="7"/>
+      <c r="G246" s="0"/>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0"/>
+      <c r="B247" s="7"/>
+      <c r="C247" s="7"/>
+      <c r="D247" s="15"/>
+      <c r="E247" s="7"/>
+      <c r="F247" s="7"/>
+      <c r="G247" s="0"/>
+    </row>
+    <row r="248" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="B245" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C245" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D245" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="E245" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F245" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G245" s="0"/>
-    </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="0"/>
-      <c r="B246" s="0"/>
-      <c r="C246" s="0"/>
-      <c r="D246" s="15"/>
-      <c r="E246" s="0"/>
-      <c r="F246" s="0"/>
-      <c r="G246" s="0"/>
-    </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="B247" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C247" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D247" s="13" t="s">
+      <c r="B248" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D248" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E247" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F247" s="7" t="s">
+      <c r="E248" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F248" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G247" s="14" t="s">
+      <c r="G248" s="14" t="s">
         <v>232</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="B248" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C248" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D248" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="E248" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F248" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G248" s="12" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="14" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B249" s="7" t="s">
         <v>230</v>
@@ -6141,221 +6179,223 @@
       <c r="C249" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D249" s="11" t="s">
-        <v>260</v>
+      <c r="D249" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="E249" s="7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F249" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G249" s="12" t="s">
-        <v>261</v>
+        <v>90</v>
+      </c>
+      <c r="G249" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D250" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B250" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C250" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D250" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="E250" s="7"/>
-      <c r="F250" s="7"/>
-      <c r="G250" s="0"/>
+      <c r="E250" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F250" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G250" s="0" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="14" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B251" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D251" s="11" t="s">
-        <v>247</v>
+        <v>237</v>
+      </c>
+      <c r="D251" s="12" t="s">
+        <v>259</v>
       </c>
       <c r="E251" s="7"/>
       <c r="F251" s="7"/>
       <c r="G251" s="0"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="14"/>
-      <c r="B252" s="0"/>
-      <c r="C252" s="0"/>
-      <c r="D252" s="15"/>
-      <c r="E252" s="0"/>
-      <c r="F252" s="0"/>
+      <c r="A252" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D252" s="7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E252" s="7"/>
+      <c r="F252" s="7"/>
       <c r="G252" s="0"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="14" t="s">
+      <c r="A253" s="0"/>
+      <c r="B253" s="0"/>
+      <c r="C253" s="0"/>
+      <c r="D253" s="15"/>
+      <c r="E253" s="0"/>
+      <c r="F253" s="0"/>
+      <c r="G253" s="0"/>
+    </row>
+    <row r="254" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B254" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D254" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E254" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F254" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G254" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B255" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D255" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E255" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F255" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G255" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D256" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="B253" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C253" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D253" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E253" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F253" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G253" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="B254" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C254" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D254" s="11" t="s">
+      <c r="E256" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F256" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G256" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="E254" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F254" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G254" s="12" t="s">
+    </row>
+    <row r="257" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B257" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D257" s="13" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="B255" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C255" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D255" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="E255" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F255" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G255" s="12" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="B256" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C256" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D256" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="E256" s="7"/>
-      <c r="F256" s="7"/>
-      <c r="G256" s="0"/>
-    </row>
-    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="B257" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C257" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D257" s="13" t="n">
-        <v>-3</v>
       </c>
       <c r="E257" s="7"/>
       <c r="F257" s="7"/>
       <c r="G257" s="0"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0"/>
-      <c r="B258" s="0"/>
-      <c r="C258" s="0"/>
-      <c r="D258" s="15"/>
-      <c r="E258" s="0"/>
-      <c r="F258" s="0"/>
+      <c r="A258" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D258" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E258" s="7"/>
+      <c r="F258" s="7"/>
       <c r="G258" s="0"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="B259" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C259" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D259" s="13" t="s">
+      <c r="A259" s="14"/>
+      <c r="B259" s="0"/>
+      <c r="C259" s="0"/>
+      <c r="D259" s="15"/>
+      <c r="E259" s="0"/>
+      <c r="F259" s="0"/>
+      <c r="G259" s="0"/>
+    </row>
+    <row r="260" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B260" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D260" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E259" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F259" s="7" t="s">
+      <c r="E260" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F260" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G259" s="14" t="s">
+      <c r="G260" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="B260" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C260" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D260" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="E260" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F260" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G260" s="0"/>
-    </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="14" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B261" s="7" t="s">
         <v>230</v>
@@ -6363,8 +6403,8 @@
       <c r="C261" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D261" s="7" t="s">
-        <v>271</v>
+      <c r="D261" s="11" t="s">
+        <v>267</v>
       </c>
       <c r="E261" s="7" t="s">
         <v>22</v>
@@ -6372,400 +6412,396 @@
       <c r="F261" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G261" s="0"/>
-    </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0"/>
-      <c r="B262" s="0"/>
-      <c r="C262" s="0"/>
-      <c r="D262" s="15"/>
-      <c r="E262" s="0"/>
-      <c r="F262" s="0"/>
-      <c r="G262" s="0"/>
-    </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G261" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D262" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="E262" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F262" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G262" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D263" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="E263" s="7"/>
+      <c r="F263" s="7"/>
+      <c r="G263" s="0"/>
+    </row>
+    <row r="264" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D264" s="13" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E264" s="7"/>
+      <c r="F264" s="7"/>
+      <c r="G264" s="0"/>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0"/>
+      <c r="B265" s="0"/>
+      <c r="C265" s="0"/>
+      <c r="D265" s="15"/>
+      <c r="E265" s="0"/>
+      <c r="F265" s="0"/>
+      <c r="G265" s="0"/>
+    </row>
+    <row r="266" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="B263" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C263" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D263" s="13" t="s">
+      <c r="B266" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D266" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E263" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F263" s="7" t="s">
+      <c r="E266" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F266" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G263" s="14" t="s">
+      <c r="G266" s="14" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B264" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C264" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D264" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="E264" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F264" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G264" s="0"/>
-    </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B265" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C265" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D265" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="E265" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F265" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G265" s="0"/>
-    </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0"/>
-      <c r="B266" s="0"/>
-      <c r="C266" s="0"/>
-      <c r="D266" s="15"/>
-      <c r="E266" s="0"/>
-      <c r="F266" s="0"/>
-      <c r="G266" s="0"/>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B267" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D267" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E267" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F267" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G267" s="0"/>
+    </row>
+    <row r="268" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B268" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D268" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E268" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F268" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G268" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="B267" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C267" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D267" s="13" t="s">
+    </row>
+    <row r="269" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D269" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E269" s="7"/>
+      <c r="F269" s="7"/>
+      <c r="G269" s="0"/>
+    </row>
+    <row r="270" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B270" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D270" s="13" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E270" s="7"/>
+      <c r="F270" s="7"/>
+      <c r="G270" s="0"/>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0"/>
+      <c r="B271" s="0"/>
+      <c r="C271" s="0"/>
+      <c r="D271" s="15"/>
+      <c r="E271" s="0"/>
+      <c r="F271" s="0"/>
+      <c r="G271" s="0"/>
+    </row>
+    <row r="272" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B272" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D272" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E267" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F267" s="7" t="s">
+      <c r="E272" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F272" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G267" s="14" t="s">
+      <c r="G272" s="14" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="B268" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C268" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D268" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E268" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F268" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G268" s="0"/>
-    </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="B269" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C269" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D269" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="E269" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F269" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G269" s="0"/>
-    </row>
-    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="0"/>
-      <c r="B270" s="0"/>
-      <c r="C270" s="0"/>
-      <c r="D270" s="15"/>
-      <c r="E270" s="0"/>
-      <c r="F270" s="0"/>
-      <c r="G270" s="0"/>
-    </row>
-    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B271" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C271" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D271" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E271" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F271" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G271" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B272" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C272" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D272" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E272" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F272" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G272" s="0"/>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B273" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D273" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="B273" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C273" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D273" s="7" t="s">
+      <c r="E273" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F273" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G273" s="0"/>
+    </row>
+    <row r="274" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D274" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E274" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F274" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G274" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="E273" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F273" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G273" s="0"/>
-    </row>
-    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="0"/>
-      <c r="B274" s="0"/>
-      <c r="C274" s="0"/>
-      <c r="D274" s="15"/>
-      <c r="E274" s="0"/>
-      <c r="F274" s="0"/>
-      <c r="G274" s="0"/>
-    </row>
-    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="275" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B275" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D275" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="B275" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C275" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D275" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E275" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F275" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G275" s="14" t="s">
-        <v>232</v>
-      </c>
+      <c r="E275" s="7"/>
+      <c r="F275" s="7"/>
+      <c r="G275" s="0"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="14" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B276" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>11</v>
+        <v>239</v>
       </c>
       <c r="D276" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="E276" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F276" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G276" s="12" t="s">
+      <c r="E276" s="7"/>
+      <c r="F276" s="7"/>
+      <c r="G276" s="0"/>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0"/>
+      <c r="B277" s="0"/>
+      <c r="C277" s="0"/>
+      <c r="D277" s="15"/>
+      <c r="E277" s="0"/>
+      <c r="F277" s="0"/>
+      <c r="G277" s="0"/>
+    </row>
+    <row r="278" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="14" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="B277" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C277" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D277" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="E277" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F277" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G277" s="12" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="14" t="s">
-        <v>281</v>
-      </c>
       <c r="B278" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>237</v>
+        <v>11</v>
       </c>
       <c r="D278" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="E278" s="7"/>
-      <c r="F278" s="7"/>
-      <c r="G278" s="0"/>
+        <v>231</v>
+      </c>
+      <c r="E278" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F278" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G278" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="14" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B279" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D279" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="E279" s="7"/>
-      <c r="F279" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="D279" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E279" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F279" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="G279" s="0"/>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="0"/>
-      <c r="B280" s="0"/>
-      <c r="C280" s="0"/>
-      <c r="D280" s="15"/>
-      <c r="E280" s="0"/>
-      <c r="F280" s="0"/>
+      <c r="A280" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B280" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C280" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D280" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E280" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F280" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="G280" s="0"/>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="B281" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C281" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D281" s="13" t="s">
+      <c r="A281" s="0"/>
+      <c r="B281" s="0"/>
+      <c r="C281" s="0"/>
+      <c r="D281" s="15"/>
+      <c r="E281" s="0"/>
+      <c r="F281" s="0"/>
+      <c r="G281" s="0"/>
+    </row>
+    <row r="282" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="B282" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D282" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E281" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F281" s="7" t="s">
+      <c r="E282" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F282" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G281" s="14" t="s">
+      <c r="G282" s="14" t="s">
         <v>232</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="B282" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C282" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D282" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="E282" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F282" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G282" s="12" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B283" s="7" t="s">
         <v>230</v>
@@ -6773,312 +6809,320 @@
       <c r="C283" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D283" s="11" t="s">
-        <v>291</v>
+      <c r="D283" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="E283" s="7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F283" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G283" s="12" t="s">
-        <v>292</v>
-      </c>
+      <c r="G283" s="0"/>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="B284" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D284" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B284" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C284" s="7" t="s">
+      <c r="E284" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F284" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G284" s="0"/>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0"/>
+      <c r="B285" s="0"/>
+      <c r="C285" s="0"/>
+      <c r="D285" s="15"/>
+      <c r="E285" s="0"/>
+      <c r="F285" s="0"/>
+      <c r="G285" s="0"/>
+    </row>
+    <row r="286" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B286" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D286" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E286" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F286" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G286" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B287" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D287" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="E287" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F287" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G287" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B288" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D288" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="E288" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F288" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G288" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B289" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C289" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D284" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="E284" s="7"/>
-      <c r="F284" s="7"/>
-      <c r="G284" s="0"/>
-    </row>
-    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="B285" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C285" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D285" s="13" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E285" s="7"/>
-      <c r="F285" s="7"/>
-      <c r="G285" s="0"/>
-    </row>
-    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="0"/>
-      <c r="B286" s="0"/>
-      <c r="C286" s="0"/>
-      <c r="D286" s="15"/>
-      <c r="E286" s="0"/>
-      <c r="F286" s="0"/>
-      <c r="G286" s="0"/>
-    </row>
-    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="14" t="s">
+      <c r="D289" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="B287" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C287" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D287" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E287" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F287" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G287" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="B288" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C288" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D288" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="E288" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F288" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G288" s="12" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="B289" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C289" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D289" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="E289" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F289" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G289" s="12" t="s">
-        <v>298</v>
-      </c>
+      <c r="E289" s="7"/>
+      <c r="F289" s="7"/>
+      <c r="G289" s="0"/>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="14" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B290" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D290" s="13" t="s">
-        <v>298</v>
+        <v>239</v>
+      </c>
+      <c r="D290" s="11" t="s">
+        <v>295</v>
       </c>
       <c r="E290" s="7"/>
       <c r="F290" s="7"/>
       <c r="G290" s="0"/>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="B291" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C291" s="7" t="s">
+      <c r="A291" s="0"/>
+      <c r="B291" s="0"/>
+      <c r="C291" s="0"/>
+      <c r="D291" s="15"/>
+      <c r="E291" s="0"/>
+      <c r="F291" s="0"/>
+      <c r="G291" s="0"/>
+    </row>
+    <row r="292" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B292" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D292" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E292" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F292" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G292" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B293" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D293" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E293" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F293" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G293" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B294" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D294" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="E294" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F294" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G294" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B295" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D295" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="E295" s="7"/>
+      <c r="F295" s="7"/>
+      <c r="G295" s="0"/>
+    </row>
+    <row r="296" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B296" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C296" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D291" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E291" s="7"/>
-      <c r="F291" s="7"/>
-      <c r="G291" s="0"/>
-    </row>
-    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="0"/>
-      <c r="B292" s="0"/>
-      <c r="C292" s="0"/>
-      <c r="D292" s="15"/>
-      <c r="E292" s="0"/>
-      <c r="F292" s="0"/>
-      <c r="G292" s="0"/>
-    </row>
-    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="B293" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C293" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D293" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E293" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F293" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G293" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="B294" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C294" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D294" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="E294" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F294" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G294" s="12" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="B295" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C295" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D295" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="E295" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F295" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G295" s="12" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="B296" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C296" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D296" s="13" t="s">
-        <v>303</v>
+      <c r="D296" s="13" t="n">
+        <v>-3</v>
       </c>
       <c r="E296" s="7"/>
       <c r="F296" s="7"/>
       <c r="G296" s="0"/>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="B297" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C297" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D297" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E297" s="7"/>
-      <c r="F297" s="7"/>
+      <c r="A297" s="0"/>
+      <c r="B297" s="0"/>
+      <c r="C297" s="0"/>
+      <c r="D297" s="15"/>
+      <c r="E297" s="0"/>
+      <c r="F297" s="0"/>
       <c r="G297" s="0"/>
     </row>
-    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="0"/>
-      <c r="B298" s="0"/>
-      <c r="C298" s="0"/>
-      <c r="D298" s="15"/>
-      <c r="E298" s="0"/>
-      <c r="F298" s="0"/>
-      <c r="G298" s="0"/>
-    </row>
-    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="B298" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D298" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E298" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F298" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G298" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="B299" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D299" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="E299" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F299" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G299" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="B299" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C299" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D299" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E299" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F299" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G299" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="300" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B300" s="7" t="s">
         <v>230</v>
@@ -7093,193 +7137,193 @@
         <v>22</v>
       </c>
       <c r="F300" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G300" s="12" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B301" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D301" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="E301" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F301" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G301" s="12" t="s">
-        <v>308</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D301" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="E301" s="7"/>
+      <c r="F301" s="7"/>
+      <c r="G301" s="0"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B302" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D302" s="13" t="s">
-        <v>309</v>
+        <v>239</v>
+      </c>
+      <c r="D302" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="E302" s="7"/>
       <c r="F302" s="7"/>
       <c r="G302" s="0"/>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="B303" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C303" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D303" s="11" t="s">
+      <c r="A303" s="0"/>
+      <c r="B303" s="0"/>
+      <c r="C303" s="0"/>
+      <c r="D303" s="15"/>
+      <c r="E303" s="0"/>
+      <c r="F303" s="0"/>
+      <c r="G303" s="0"/>
+    </row>
+    <row r="304" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="B304" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C304" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D304" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E304" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F304" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G304" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="B305" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C305" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D305" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="E305" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F305" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G305" s="12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="B306" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C306" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D306" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="E303" s="7"/>
-      <c r="F303" s="7"/>
-      <c r="G303" s="0"/>
-    </row>
-    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="14"/>
-      <c r="B304" s="7"/>
-      <c r="C304" s="7"/>
-      <c r="D304" s="11"/>
-      <c r="E304" s="7"/>
-      <c r="F304" s="7"/>
-      <c r="G304" s="0"/>
-    </row>
-    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="14" t="s">
+      <c r="E306" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F306" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G306" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="B305" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C305" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D305" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E305" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F305" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G305" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="14" t="s">
+    </row>
+    <row r="307" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="B307" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C307" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D307" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="B306" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C306" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D306" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="E306" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F306" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G306" s="12" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="B307" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C307" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D307" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="E307" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F307" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G307" s="12" t="s">
-        <v>315</v>
-      </c>
+      <c r="E307" s="7"/>
+      <c r="F307" s="7"/>
+      <c r="G307" s="0"/>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="14" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B308" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D308" s="13" t="s">
-        <v>316</v>
+        <v>239</v>
+      </c>
+      <c r="D308" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="E308" s="7"/>
       <c r="F308" s="7"/>
       <c r="G308" s="0"/>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="B309" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C309" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D309" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E309" s="7"/>
-      <c r="F309" s="7"/>
+      <c r="A309" s="0"/>
+      <c r="B309" s="0"/>
+      <c r="C309" s="0"/>
+      <c r="D309" s="15"/>
+      <c r="E309" s="0"/>
+      <c r="F309" s="0"/>
       <c r="G309" s="0"/>
     </row>
-    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="0"/>
-      <c r="B310" s="0"/>
-      <c r="C310" s="0"/>
-      <c r="D310" s="15"/>
-      <c r="E310" s="0"/>
-      <c r="F310" s="0"/>
-      <c r="G310" s="0"/>
-    </row>
-    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B310" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D310" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E310" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F310" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G310" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="14" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B311" s="7" t="s">
         <v>230</v>
@@ -7287,22 +7331,22 @@
       <c r="C311" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D311" s="13" t="s">
-        <v>231</v>
+      <c r="D311" s="11" t="s">
+        <v>313</v>
       </c>
       <c r="E311" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F311" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G311" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+      <c r="G311" s="12" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="14" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B312" s="7" t="s">
         <v>230</v>
@@ -7311,7 +7355,7 @@
         <v>11</v>
       </c>
       <c r="D312" s="11" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E312" s="7" t="s">
         <v>22</v>
@@ -7320,78 +7364,78 @@
         <v>92</v>
       </c>
       <c r="G312" s="12" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B313" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C313" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D313" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="B313" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C313" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D313" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="E313" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F313" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G313" s="12" t="s">
-        <v>321</v>
-      </c>
+      <c r="E313" s="7"/>
+      <c r="F313" s="7"/>
+      <c r="G313" s="0"/>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="14" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B314" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D314" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="E314" s="0"/>
+        <v>239</v>
+      </c>
+      <c r="D314" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="E314" s="7"/>
       <c r="F314" s="7"/>
       <c r="G314" s="0"/>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="B315" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C315" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D315" s="11" t="s">
-        <v>287</v>
-      </c>
+      <c r="A315" s="14"/>
+      <c r="B315" s="7"/>
+      <c r="C315" s="7"/>
+      <c r="D315" s="11"/>
       <c r="E315" s="7"/>
       <c r="F315" s="7"/>
       <c r="G315" s="0"/>
     </row>
-    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="0"/>
-      <c r="B316" s="0"/>
-      <c r="C316" s="0"/>
-      <c r="D316" s="15"/>
-      <c r="E316" s="0"/>
-      <c r="F316" s="0"/>
-      <c r="G316" s="0"/>
-    </row>
-    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B316" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C316" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D316" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E316" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F316" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G316" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="14" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B317" s="7" t="s">
         <v>230</v>
@@ -7399,22 +7443,22 @@
       <c r="C317" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D317" s="13" t="s">
-        <v>231</v>
+      <c r="D317" s="11" t="s">
+        <v>320</v>
       </c>
       <c r="E317" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F317" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G317" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+      <c r="G317" s="12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="14" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B318" s="7" t="s">
         <v>230</v>
@@ -7423,218 +7467,222 @@
         <v>11</v>
       </c>
       <c r="D318" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E318" s="7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F318" s="7" t="s">
         <v>92</v>
       </c>
       <c r="G318" s="12" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="14" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B319" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D319" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="E319" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F319" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G319" s="12" t="s">
-        <v>327</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D319" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="E319" s="7"/>
+      <c r="F319" s="7"/>
+      <c r="G319" s="0"/>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="14" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B320" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D320" s="13" t="s">
-        <v>328</v>
+        <v>239</v>
+      </c>
+      <c r="D320" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="E320" s="7"/>
       <c r="F320" s="7"/>
       <c r="G320" s="0"/>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="B321" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C321" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D321" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="E321" s="7"/>
-      <c r="F321" s="7"/>
+      <c r="A321" s="0"/>
+      <c r="B321" s="0"/>
+      <c r="C321" s="0"/>
+      <c r="D321" s="15"/>
+      <c r="E321" s="0"/>
+      <c r="F321" s="0"/>
       <c r="G321" s="0"/>
     </row>
-    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="0"/>
-      <c r="B322" s="0"/>
-      <c r="C322" s="0"/>
-      <c r="D322" s="15"/>
-      <c r="E322" s="0"/>
-      <c r="F322" s="0"/>
-      <c r="G322" s="0"/>
-    </row>
-    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B322" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C322" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D322" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E322" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F322" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G322" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B323" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C323" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D323" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="E323" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F323" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G323" s="12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B324" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C324" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D324" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E324" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F324" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G324" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="B323" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C323" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D323" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E323" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F323" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G323" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="B324" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C324" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D324" s="7" t="s">
+    </row>
+    <row r="325" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B325" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C325" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D325" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="E324" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F324" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G324" s="0"/>
-    </row>
-    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="B325" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C325" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D325" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="E325" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F325" s="7" t="s">
-        <v>90</v>
-      </c>
+      <c r="E325" s="0"/>
+      <c r="F325" s="7"/>
       <c r="G325" s="0"/>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="14" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B326" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D326" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
+      </c>
+      <c r="D326" s="11" t="s">
+        <v>295</v>
       </c>
       <c r="E326" s="7"/>
       <c r="F326" s="7"/>
       <c r="G326" s="0"/>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="B327" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C327" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D327" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E327" s="7"/>
-      <c r="F327" s="7"/>
+      <c r="A327" s="0"/>
+      <c r="B327" s="0"/>
+      <c r="C327" s="0"/>
+      <c r="D327" s="15"/>
+      <c r="E327" s="0"/>
+      <c r="F327" s="0"/>
       <c r="G327" s="0"/>
     </row>
-    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="0"/>
-      <c r="B328" s="0"/>
-      <c r="C328" s="0"/>
-      <c r="D328" s="15"/>
-      <c r="E328" s="0"/>
-      <c r="F328" s="0"/>
-      <c r="G328" s="0"/>
-    </row>
-    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="B328" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C328" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D328" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E328" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F328" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G328" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="B329" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C329" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D329" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="B329" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C329" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D329" s="13" t="s">
-        <v>231</v>
-      </c>
       <c r="E329" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F329" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G329" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+      <c r="G329" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B330" s="7" t="s">
         <v>230</v>
@@ -7643,83 +7691,83 @@
         <v>11</v>
       </c>
       <c r="D330" s="11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E330" s="7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F330" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G330" s="12" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B331" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D331" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="E331" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F331" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G331" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D331" s="13" t="s">
         <v>336</v>
       </c>
+      <c r="E331" s="7"/>
+      <c r="F331" s="7"/>
+      <c r="G331" s="0"/>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B332" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C332" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D332" s="13" t="s">
-        <v>322</v>
+        <v>239</v>
+      </c>
+      <c r="D332" s="11" t="s">
+        <v>295</v>
       </c>
       <c r="E332" s="7"/>
       <c r="F332" s="7"/>
       <c r="G332" s="0"/>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="B333" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C333" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D333" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="E333" s="7"/>
-      <c r="F333" s="7"/>
+      <c r="A333" s="0"/>
+      <c r="B333" s="0"/>
+      <c r="C333" s="0"/>
+      <c r="D333" s="15"/>
+      <c r="E333" s="0"/>
+      <c r="F333" s="0"/>
       <c r="G333" s="0"/>
     </row>
-    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="0"/>
-      <c r="B334" s="0"/>
-      <c r="C334" s="0"/>
-      <c r="D334" s="15"/>
-      <c r="E334" s="0"/>
-      <c r="F334" s="0"/>
-      <c r="G334" s="0"/>
+    <row r="334" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="B334" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C334" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D334" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E334" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F334" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G334" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="14" t="s">
@@ -7731,18 +7779,16 @@
       <c r="C335" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D335" s="13" t="s">
-        <v>231</v>
+      <c r="D335" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="E335" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F335" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G335" s="14" t="s">
-        <v>232</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G335" s="0"/>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="14" t="s">
@@ -7755,13 +7801,13 @@
         <v>11</v>
       </c>
       <c r="D336" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E336" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F336" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G336" s="0"/>
     </row>
@@ -7773,20 +7819,14 @@
         <v>230</v>
       </c>
       <c r="C337" s="7" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
       <c r="D337" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="E337" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F337" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G337" s="20" t="s">
-        <v>340</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="E337" s="7"/>
+      <c r="F337" s="7"/>
+      <c r="G337" s="0"/>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="14" t="s">
@@ -7796,162 +7836,162 @@
         <v>230</v>
       </c>
       <c r="C338" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D338" s="13" t="s">
-        <v>322</v>
+        <v>239</v>
+      </c>
+      <c r="D338" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="E338" s="7"/>
       <c r="F338" s="7"/>
       <c r="G338" s="0"/>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="B339" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C339" s="7" t="s">
+      <c r="A339" s="0"/>
+      <c r="B339" s="0"/>
+      <c r="C339" s="0"/>
+      <c r="D339" s="15"/>
+      <c r="E339" s="0"/>
+      <c r="F339" s="0"/>
+      <c r="G339" s="0"/>
+    </row>
+    <row r="340" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B340" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C340" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D340" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E340" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F340" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G340" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B341" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C341" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D341" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="E341" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F341" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G341" s="12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B342" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C342" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D342" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="E342" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F342" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G342" s="12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B343" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C343" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D343" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="E343" s="7"/>
+      <c r="F343" s="7"/>
+      <c r="G343" s="0"/>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B344" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C344" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D339" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="E339" s="7"/>
-      <c r="F339" s="7"/>
-      <c r="G339" s="0"/>
-    </row>
-    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="0"/>
-      <c r="B340" s="0"/>
-      <c r="C340" s="0"/>
-      <c r="D340" s="15"/>
-      <c r="E340" s="0"/>
-      <c r="F340" s="0"/>
-      <c r="G340" s="0"/>
-    </row>
-    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="B341" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C341" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D341" s="13" t="s">
+      <c r="D344" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="E344" s="7"/>
+      <c r="F344" s="7"/>
+      <c r="G344" s="0"/>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0"/>
+      <c r="B345" s="0"/>
+      <c r="C345" s="0"/>
+      <c r="D345" s="15"/>
+      <c r="E345" s="0"/>
+      <c r="F345" s="0"/>
+      <c r="G345" s="0"/>
+    </row>
+    <row r="346" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B346" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C346" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D346" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E341" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F341" s="7" t="s">
+      <c r="E346" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F346" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G341" s="14" t="s">
+      <c r="G346" s="14" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="B342" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C342" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D342" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="E342" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F342" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G342" s="0"/>
-    </row>
-    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="B343" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C343" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D343" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="E343" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F343" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G343" s="0"/>
-    </row>
-    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="0"/>
-      <c r="B344" s="0"/>
-      <c r="C344" s="0"/>
-      <c r="D344" s="15"/>
-      <c r="E344" s="0"/>
-      <c r="F344" s="0"/>
-      <c r="G344" s="0"/>
-    </row>
-    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="B345" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C345" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D345" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E345" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F345" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G345" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="B346" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C346" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D346" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="E346" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F346" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G346" s="0"/>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="14" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B347" s="7" t="s">
         <v>230</v>
@@ -7966,119 +8006,123 @@
         <v>22</v>
       </c>
       <c r="F347" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G347" s="0"/>
+    </row>
+    <row r="348" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B348" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C348" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D348" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="E348" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F348" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G347" s="0"/>
-    </row>
-    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="0"/>
-      <c r="B348" s="0"/>
-      <c r="C348" s="0"/>
-      <c r="D348" s="15"/>
-      <c r="E348" s="0"/>
-      <c r="F348" s="0"/>
-      <c r="G348" s="0"/>
-    </row>
-    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G348" s="19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B349" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C349" s="7" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
       <c r="D349" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E349" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F349" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G349" s="14" t="s">
-        <v>232</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="E349" s="7"/>
+      <c r="F349" s="7"/>
+      <c r="G349" s="0"/>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B350" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D350" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="E350" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F350" s="7" t="s">
-        <v>92</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="D350" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="E350" s="7"/>
+      <c r="F350" s="7"/>
       <c r="G350" s="0"/>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="B351" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C351" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D351" s="7" t="s">
+      <c r="A351" s="0"/>
+      <c r="B351" s="0"/>
+      <c r="C351" s="0"/>
+      <c r="D351" s="15"/>
+      <c r="E351" s="0"/>
+      <c r="F351" s="0"/>
+      <c r="G351" s="0"/>
+    </row>
+    <row r="352" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="E351" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F351" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G351" s="0"/>
-    </row>
-    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="0"/>
-      <c r="B352" s="0"/>
-      <c r="C352" s="0"/>
-      <c r="D352" s="15"/>
-      <c r="E352" s="0"/>
-      <c r="F352" s="0"/>
-      <c r="G352" s="0"/>
+      <c r="B352" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C352" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D352" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E352" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F352" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G352" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="B353" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C353" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D353" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="B353" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C353" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D353" s="13" t="s">
-        <v>231</v>
-      </c>
       <c r="E353" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F353" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G353" s="14" t="s">
-        <v>232</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G353" s="0"/>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B354" s="7" t="s">
         <v>230</v>
@@ -8093,66 +8137,66 @@
         <v>22</v>
       </c>
       <c r="F354" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G354" s="0"/>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="B355" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C355" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D355" s="7" t="s">
+      <c r="A355" s="0"/>
+      <c r="B355" s="0"/>
+      <c r="C355" s="0"/>
+      <c r="D355" s="15"/>
+      <c r="E355" s="0"/>
+      <c r="F355" s="0"/>
+      <c r="G355" s="0"/>
+    </row>
+    <row r="356" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="E355" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F355" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G355" s="0"/>
-    </row>
-    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="0"/>
-      <c r="B356" s="0"/>
-      <c r="C356" s="0"/>
-      <c r="D356" s="15"/>
-      <c r="E356" s="0"/>
-      <c r="F356" s="0"/>
-      <c r="G356" s="0"/>
+      <c r="B356" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C356" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D356" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E356" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F356" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G356" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="B357" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C357" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D357" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="B357" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C357" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D357" s="13" t="s">
-        <v>231</v>
-      </c>
       <c r="E357" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F357" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G357" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+      <c r="G357" s="0"/>
+    </row>
+    <row r="358" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B358" s="7" t="s">
         <v>230</v>
@@ -8167,66 +8211,58 @@
         <v>22</v>
       </c>
       <c r="F358" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G358" s="0"/>
+        <v>90</v>
+      </c>
+      <c r="G358" s="19" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B359" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C359" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D359" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="E359" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F359" s="7" t="s">
-        <v>90</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D359" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="E359" s="7"/>
+      <c r="F359" s="7"/>
       <c r="G359" s="0"/>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="0"/>
-      <c r="B360" s="0"/>
-      <c r="C360" s="0"/>
-      <c r="D360" s="15"/>
-      <c r="E360" s="0"/>
-      <c r="F360" s="0"/>
+      <c r="A360" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="B360" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C360" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D360" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E360" s="7"/>
+      <c r="F360" s="7"/>
       <c r="G360" s="0"/>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="B361" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C361" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D361" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E361" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F361" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G361" s="14" t="s">
-        <v>232</v>
-      </c>
+      <c r="A361" s="0"/>
+      <c r="B361" s="0"/>
+      <c r="C361" s="0"/>
+      <c r="D361" s="15"/>
+      <c r="E361" s="0"/>
+      <c r="F361" s="0"/>
+      <c r="G361" s="0"/>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="14" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B362" s="7" t="s">
         <v>230</v>
@@ -8234,20 +8270,22 @@
       <c r="C362" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D362" s="7" t="s">
-        <v>357</v>
+      <c r="D362" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="E362" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F362" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G362" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="G362" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="14" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B363" s="7" t="s">
         <v>230</v>
@@ -8262,45 +8300,43 @@
         <v>22</v>
       </c>
       <c r="F363" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G363" s="0"/>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B364" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C364" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D364" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="E364" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F364" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G363" s="0"/>
-    </row>
-    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="0"/>
-      <c r="B364" s="0"/>
-      <c r="C364" s="0"/>
-      <c r="D364" s="15"/>
-      <c r="E364" s="0"/>
-      <c r="F364" s="0"/>
       <c r="G364" s="0"/>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="B365" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C365" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D365" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E365" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F365" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G365" s="14" t="s">
-        <v>232</v>
-      </c>
+      <c r="A365" s="0"/>
+      <c r="B365" s="0"/>
+      <c r="C365" s="0"/>
+      <c r="D365" s="15"/>
+      <c r="E365" s="0"/>
+      <c r="F365" s="0"/>
+      <c r="G365" s="0"/>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="14" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B366" s="7" t="s">
         <v>230</v>
@@ -8308,20 +8344,22 @@
       <c r="C366" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D366" s="7" t="s">
-        <v>360</v>
+      <c r="D366" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="E366" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F366" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G366" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="G366" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="14" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B367" s="7" t="s">
         <v>230</v>
@@ -8336,45 +8374,43 @@
         <v>22</v>
       </c>
       <c r="F367" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G367" s="0"/>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B368" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C368" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D368" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="E368" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F368" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G367" s="0"/>
-    </row>
-    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="0"/>
-      <c r="B368" s="0"/>
-      <c r="C368" s="0"/>
-      <c r="D368" s="15"/>
-      <c r="E368" s="0"/>
-      <c r="F368" s="0"/>
       <c r="G368" s="0"/>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="B369" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C369" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D369" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E369" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F369" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G369" s="14" t="s">
-        <v>232</v>
-      </c>
+      <c r="A369" s="0"/>
+      <c r="B369" s="0"/>
+      <c r="C369" s="0"/>
+      <c r="D369" s="15"/>
+      <c r="E369" s="0"/>
+      <c r="F369" s="0"/>
+      <c r="G369" s="0"/>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="14" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B370" s="7" t="s">
         <v>230</v>
@@ -8382,20 +8418,22 @@
       <c r="C370" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D370" s="7" t="s">
-        <v>363</v>
+      <c r="D370" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="E370" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F370" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G370" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="G370" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="14" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B371" s="7" t="s">
         <v>230</v>
@@ -8410,45 +8448,43 @@
         <v>22</v>
       </c>
       <c r="F371" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G371" s="0"/>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="B372" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C372" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D372" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E372" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F372" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G371" s="0"/>
-    </row>
-    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="0"/>
-      <c r="B372" s="0"/>
-      <c r="C372" s="0"/>
-      <c r="D372" s="15"/>
-      <c r="E372" s="0"/>
-      <c r="F372" s="0"/>
       <c r="G372" s="0"/>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="B373" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C373" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D373" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E373" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F373" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G373" s="14" t="s">
-        <v>232</v>
-      </c>
+      <c r="A373" s="0"/>
+      <c r="B373" s="0"/>
+      <c r="C373" s="0"/>
+      <c r="D373" s="15"/>
+      <c r="E373" s="0"/>
+      <c r="F373" s="0"/>
+      <c r="G373" s="0"/>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="14" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B374" s="7" t="s">
         <v>230</v>
@@ -8456,20 +8492,22 @@
       <c r="C374" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D374" s="7" t="s">
-        <v>366</v>
+      <c r="D374" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="E374" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F374" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G374" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="G374" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="14" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B375" s="7" t="s">
         <v>230</v>
@@ -8484,45 +8522,43 @@
         <v>22</v>
       </c>
       <c r="F375" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G375" s="0"/>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="B376" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C376" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D376" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E376" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F376" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G375" s="0"/>
-    </row>
-    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="0"/>
-      <c r="B376" s="0"/>
-      <c r="C376" s="0"/>
-      <c r="D376" s="15"/>
-      <c r="E376" s="0"/>
-      <c r="F376" s="0"/>
       <c r="G376" s="0"/>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="B377" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C377" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D377" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E377" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F377" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G377" s="14" t="s">
-        <v>232</v>
-      </c>
+      <c r="A377" s="0"/>
+      <c r="B377" s="0"/>
+      <c r="C377" s="0"/>
+      <c r="D377" s="15"/>
+      <c r="E377" s="0"/>
+      <c r="F377" s="0"/>
+      <c r="G377" s="0"/>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B378" s="7" t="s">
         <v>230</v>
@@ -8530,20 +8566,22 @@
       <c r="C378" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D378" s="7" t="s">
-        <v>369</v>
+      <c r="D378" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="E378" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F378" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G378" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="G378" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B379" s="7" t="s">
         <v>230</v>
@@ -8558,45 +8596,43 @@
         <v>22</v>
       </c>
       <c r="F379" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G379" s="0"/>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="B380" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C380" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D380" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E380" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F380" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G379" s="0"/>
-    </row>
-    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="0"/>
-      <c r="B380" s="0"/>
-      <c r="C380" s="0"/>
-      <c r="D380" s="15"/>
-      <c r="E380" s="0"/>
-      <c r="F380" s="0"/>
       <c r="G380" s="0"/>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="B381" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C381" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D381" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E381" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F381" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G381" s="14" t="s">
-        <v>232</v>
-      </c>
+      <c r="A381" s="0"/>
+      <c r="B381" s="0"/>
+      <c r="C381" s="0"/>
+      <c r="D381" s="15"/>
+      <c r="E381" s="0"/>
+      <c r="F381" s="0"/>
+      <c r="G381" s="0"/>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B382" s="7" t="s">
         <v>230</v>
@@ -8604,20 +8640,22 @@
       <c r="C382" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D382" s="7" t="s">
-        <v>372</v>
+      <c r="D382" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="E382" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F382" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G382" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="G382" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B383" s="7" t="s">
         <v>230</v>
@@ -8632,45 +8670,43 @@
         <v>22</v>
       </c>
       <c r="F383" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G383" s="0"/>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="B384" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C384" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D384" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="E384" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F384" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G383" s="0"/>
-    </row>
-    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="0"/>
-      <c r="B384" s="0"/>
-      <c r="C384" s="0"/>
-      <c r="D384" s="15"/>
-      <c r="E384" s="0"/>
-      <c r="F384" s="0"/>
       <c r="G384" s="0"/>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="B385" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C385" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D385" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E385" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F385" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G385" s="14" t="s">
-        <v>232</v>
-      </c>
+      <c r="A385" s="0"/>
+      <c r="B385" s="0"/>
+      <c r="C385" s="0"/>
+      <c r="D385" s="15"/>
+      <c r="E385" s="0"/>
+      <c r="F385" s="0"/>
+      <c r="G385" s="0"/>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="14" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B386" s="7" t="s">
         <v>230</v>
@@ -8678,20 +8714,22 @@
       <c r="C386" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D386" s="7" t="s">
-        <v>375</v>
+      <c r="D386" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="E386" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F386" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G386" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="G386" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="14" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B387" s="7" t="s">
         <v>230</v>
@@ -8706,45 +8744,43 @@
         <v>22</v>
       </c>
       <c r="F387" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G387" s="0"/>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="B388" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C388" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D388" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="E388" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F388" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G387" s="0"/>
-    </row>
-    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="0"/>
-      <c r="B388" s="0"/>
-      <c r="C388" s="0"/>
-      <c r="D388" s="15"/>
-      <c r="E388" s="0"/>
-      <c r="F388" s="0"/>
       <c r="G388" s="0"/>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="B389" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C389" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D389" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E389" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F389" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G389" s="14" t="s">
-        <v>232</v>
-      </c>
+      <c r="A389" s="0"/>
+      <c r="B389" s="0"/>
+      <c r="C389" s="0"/>
+      <c r="D389" s="15"/>
+      <c r="E389" s="0"/>
+      <c r="F389" s="0"/>
+      <c r="G389" s="0"/>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="14" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B390" s="7" t="s">
         <v>230</v>
@@ -8752,20 +8788,22 @@
       <c r="C390" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D390" s="7" t="s">
-        <v>378</v>
+      <c r="D390" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="E390" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F390" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G390" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="G390" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="14" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B391" s="7" t="s">
         <v>230</v>
@@ -8780,45 +8818,43 @@
         <v>22</v>
       </c>
       <c r="F391" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G391" s="0"/>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="B392" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C392" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D392" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="E392" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F392" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G391" s="0"/>
-    </row>
-    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="0"/>
-      <c r="B392" s="0"/>
-      <c r="C392" s="0"/>
-      <c r="D392" s="15"/>
-      <c r="E392" s="0"/>
-      <c r="F392" s="0"/>
       <c r="G392" s="0"/>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="B393" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C393" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D393" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E393" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F393" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G393" s="14" t="s">
-        <v>232</v>
-      </c>
+      <c r="A393" s="0"/>
+      <c r="B393" s="0"/>
+      <c r="C393" s="0"/>
+      <c r="D393" s="15"/>
+      <c r="E393" s="0"/>
+      <c r="F393" s="0"/>
+      <c r="G393" s="0"/>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B394" s="7" t="s">
         <v>230</v>
@@ -8826,20 +8862,22 @@
       <c r="C394" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D394" s="7" t="s">
-        <v>381</v>
+      <c r="D394" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="E394" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F394" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G394" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="G394" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B395" s="7" t="s">
         <v>230</v>
@@ -8854,42 +8892,52 @@
         <v>22</v>
       </c>
       <c r="F395" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G395" s="0"/>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="B396" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C396" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D396" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E396" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F396" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G395" s="0"/>
-    </row>
-    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="0"/>
-      <c r="B396" s="0"/>
-      <c r="C396" s="0"/>
-      <c r="D396" s="15"/>
-      <c r="E396" s="0"/>
-      <c r="F396" s="0"/>
       <c r="G396" s="0"/>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="B397" s="9"/>
-      <c r="C397" s="9"/>
-      <c r="D397" s="10"/>
-      <c r="E397" s="9"/>
-      <c r="F397" s="9"/>
-      <c r="G397" s="9"/>
+      <c r="A397" s="0"/>
+      <c r="B397" s="0"/>
+      <c r="C397" s="0"/>
+      <c r="D397" s="15"/>
+      <c r="E397" s="0"/>
+      <c r="F397" s="0"/>
+      <c r="G397" s="0"/>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="7" t="s">
+      <c r="A398" s="14" t="s">
         <v>384</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="C398" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D398" s="13" t="s">
-        <v>385</v>
+        <v>231</v>
       </c>
       <c r="E398" s="7" t="s">
         <v>22</v>
@@ -8897,8 +8945,241 @@
       <c r="F398" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G398" s="12" t="s">
+      <c r="G398" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="B399" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C399" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D399" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="E399" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F399" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G399" s="0"/>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="B400" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C400" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D400" s="7" t="s">
         <v>386</v>
+      </c>
+      <c r="E400" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F400" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G400" s="0"/>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="0"/>
+      <c r="B401" s="0"/>
+      <c r="C401" s="0"/>
+      <c r="D401" s="15"/>
+      <c r="E401" s="0"/>
+      <c r="F401" s="0"/>
+      <c r="G401" s="0"/>
+    </row>
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="B402" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C402" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D402" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E402" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F402" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G402" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="B403" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C403" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D403" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="E403" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F403" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G403" s="0"/>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="B404" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C404" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D404" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E404" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F404" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G404" s="0"/>
+    </row>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="0"/>
+      <c r="B405" s="0"/>
+      <c r="C405" s="0"/>
+      <c r="D405" s="15"/>
+      <c r="E405" s="0"/>
+      <c r="F405" s="0"/>
+      <c r="G405" s="0"/>
+    </row>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="B406" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C406" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D406" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E406" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F406" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G406" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="B407" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C407" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D407" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="E407" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F407" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G407" s="0"/>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="B408" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C408" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D408" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="E408" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F408" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G408" s="0"/>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="0"/>
+      <c r="B409" s="0"/>
+      <c r="C409" s="0"/>
+      <c r="D409" s="15"/>
+      <c r="E409" s="0"/>
+      <c r="F409" s="0"/>
+      <c r="G409" s="0"/>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B410" s="9"/>
+      <c r="C410" s="9"/>
+      <c r="D410" s="10"/>
+      <c r="E410" s="9"/>
+      <c r="F410" s="9"/>
+      <c r="G410" s="9"/>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B411" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C411" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D411" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="E411" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F411" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G411" s="12" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/python/multiscalepy/multiscale/modelcreator/models/glucose/glucose_annotations.xlsx
+++ b/python/multiscalepy/multiscale/modelcreator/models/glucose/glucose_annotations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="255" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="260" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="411">
   <si>
     <t>pattern</t>
   </si>
@@ -872,7 +872,16 @@
     <t>C00003</t>
   </si>
   <si>
-    <t>CHEBI:15846</t>
+    <t>CHEBI:57540</t>
+  </si>
+  <si>
+    <t>NAD(1-)</t>
+  </si>
+  <si>
+    <t>C21H26N7O14P2</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
   <si>
     <t>^nadh[_]*\w*$</t>
@@ -881,7 +890,16 @@
     <t>C00004</t>
   </si>
   <si>
-    <t>CHEBI:16908</t>
+    <t>CHEBI:57945</t>
+  </si>
+  <si>
+    <t>NADH(2-)</t>
+  </si>
+  <si>
+    <t>C21H27N7O14P2</t>
+  </si>
+  <si>
+    <t>-2</t>
   </si>
   <si>
     <t>^phos[_]*\w*$</t>
@@ -902,9 +920,6 @@
     <t>HO4P</t>
   </si>
   <si>
-    <t>-2</t>
-  </si>
-  <si>
     <t>^pp[_]*\w*$</t>
   </si>
   <si>
@@ -1070,7 +1085,13 @@
     <t>C00354</t>
   </si>
   <si>
-    <t>CHEBI:16905</t>
+    <t>CHEBI:49299</t>
+  </si>
+  <si>
+    <t>D-fructofuranose 1,6-bisphosphate(4-)</t>
+  </si>
+  <si>
+    <t>C6H10O12P2</t>
   </si>
   <si>
     <t>^fru26bp[_]*\w*$</t>
@@ -1085,16 +1106,19 @@
     <t>β-D-fructofuranose 2,6-bisphosphate(4−)</t>
   </si>
   <si>
-    <t>C6H10O12P2</t>
-  </si>
-  <si>
     <t>^grap[_]*\w*$</t>
   </si>
   <si>
     <t>C00118</t>
   </si>
   <si>
-    <t>CHEBI:29052</t>
+    <t>CHEBI:59776</t>
+  </si>
+  <si>
+    <t>D-glyceraldehyde 3-phosphate(2-)</t>
+  </si>
+  <si>
+    <t>C3H5O6P</t>
   </si>
   <si>
     <t>^dhap[_]*\w*$</t>
@@ -1103,7 +1127,10 @@
     <t>C00111</t>
   </si>
   <si>
-    <t>CHEBI:16108</t>
+    <t>CHEBI:57642</t>
+  </si>
+  <si>
+    <t>glycerone phosphate(2-)</t>
   </si>
   <si>
     <t>^bpg13[_]*\w*$</t>
@@ -1112,7 +1139,13 @@
     <t>C00236</t>
   </si>
   <si>
-    <t>CHEBI:16001</t>
+    <t>CHEBI:57604</t>
+  </si>
+  <si>
+    <t>3-phosphonato-D-glyceroyl phosphate(4-)</t>
+  </si>
+  <si>
+    <t>C3H4O10P2</t>
   </si>
   <si>
     <t>^pg3[_]*\w*$</t>
@@ -1121,7 +1154,13 @@
     <t>C00197</t>
   </si>
   <si>
-    <t>CHEBI:17794</t>
+    <t>CHEBI:58272</t>
+  </si>
+  <si>
+    <t>3-phosphonato-D-glycerate(3-)</t>
+  </si>
+  <si>
+    <t>C3H4O7P</t>
   </si>
   <si>
     <t>^pg2[_]*\w*$</t>
@@ -1130,7 +1169,10 @@
     <t>C00631</t>
   </si>
   <si>
-    <t>CHEBI:17835</t>
+    <t>CHEBI:58289</t>
+  </si>
+  <si>
+    <t>2-phosphonato-D-glycerate(3-)</t>
   </si>
   <si>
     <t>^pep[_]*\w*$</t>
@@ -1477,10 +1519,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G411"/>
+  <dimension ref="A1:G434"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A116" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D132" activeCellId="0" sqref="D132"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A380" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D403" activeCellId="0" sqref="D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4165,14 +4207,14 @@
       <c r="C143" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D143" s="7" t="s">
-        <v>162</v>
+      <c r="D143" s="7" t="n">
+        <v>16110</v>
       </c>
       <c r="E143" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G143" s="0"/>
     </row>
@@ -4187,49 +4229,47 @@
         <v>11</v>
       </c>
       <c r="D144" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G144" s="0"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E144" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F144" s="7" t="s">
+      <c r="E145" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F145" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G144" s="0"/>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="16"/>
-      <c r="B145" s="16"/>
-      <c r="C145" s="16"/>
-      <c r="D145" s="17"/>
-      <c r="E145" s="16"/>
-      <c r="F145" s="16"/>
-      <c r="G145" s="16"/>
-    </row>
-    <row r="146" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D146" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F146" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G145" s="0"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="16"/>
+      <c r="B146" s="16"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="16"/>
+    </row>
+    <row r="147" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="14" t="s">
         <v>164</v>
       </c>
@@ -4239,16 +4279,18 @@
       <c r="C147" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D147" s="7" t="s">
-        <v>165</v>
+      <c r="D147" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="E147" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G147" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="G147" s="14" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="14" t="s">
@@ -4261,13 +4303,13 @@
         <v>11</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E148" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G148" s="0"/>
     </row>
@@ -4281,14 +4323,14 @@
       <c r="C149" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="7" t="s">
-        <v>167</v>
+      <c r="D149" s="7" t="n">
+        <v>11065</v>
       </c>
       <c r="E149" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="G149" s="0"/>
     </row>
@@ -4303,70 +4345,68 @@
         <v>11</v>
       </c>
       <c r="D150" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G150" s="0"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G151" s="0"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E150" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F150" s="7" t="s">
+      <c r="E152" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F152" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G150" s="0"/>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="16"/>
-      <c r="B151" s="16"/>
-      <c r="C151" s="16"/>
-      <c r="D151" s="17"/>
-      <c r="E151" s="16"/>
-      <c r="F151" s="16"/>
-      <c r="G151" s="16"/>
-    </row>
-    <row r="152" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D152" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E152" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F152" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" s="14" t="s">
-        <v>110</v>
-      </c>
+      <c r="G152" s="0"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F153" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G153" s="0"/>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="16"/>
+      <c r="B153" s="16"/>
+      <c r="C153" s="16"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="16"/>
+      <c r="G153" s="16"/>
+    </row>
+    <row r="154" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="14" t="s">
         <v>169</v>
       </c>
@@ -4376,16 +4416,18 @@
       <c r="C154" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D154" s="7" t="s">
-        <v>171</v>
+      <c r="D154" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="E154" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G154" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="G154" s="14" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="14" t="s">
@@ -4398,28 +4440,40 @@
         <v>11</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E155" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="G155" s="0"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="16"/>
-      <c r="B156" s="16"/>
-      <c r="C156" s="16"/>
-      <c r="D156" s="17"/>
-      <c r="E156" s="16"/>
-      <c r="F156" s="16"/>
-      <c r="G156" s="16"/>
-    </row>
-    <row r="157" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="7" t="n">
+        <v>14732</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G156" s="0"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>102</v>
@@ -4427,22 +4481,20 @@
       <c r="C157" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D157" s="13" t="s">
-        <v>109</v>
+      <c r="D157" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="E157" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G157" s="14" t="s">
-        <v>110</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G157" s="0"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>102</v>
@@ -4451,38 +4503,26 @@
         <v>11</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E158" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="G158" s="0"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E159" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F159" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G159" s="0"/>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="16"/>
+      <c r="B159" s="16"/>
+      <c r="C159" s="16"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="16"/>
+      <c r="F159" s="16"/>
+      <c r="G159" s="16"/>
+    </row>
+    <row r="160" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="14" t="s">
         <v>173</v>
       </c>
@@ -4492,29 +4532,43 @@
       <c r="C160" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D160" s="7" t="s">
-        <v>176</v>
+      <c r="D160" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="E160" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G160" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="G160" s="14" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="16"/>
-      <c r="B161" s="16"/>
-      <c r="C161" s="16"/>
-      <c r="D161" s="17"/>
-      <c r="E161" s="16"/>
-      <c r="F161" s="16"/>
-      <c r="G161" s="16"/>
-    </row>
-    <row r="162" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F161" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G161" s="0"/>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="14" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B162" s="7" t="s">
         <v>102</v>
@@ -4522,22 +4576,20 @@
       <c r="C162" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D162" s="13" t="s">
-        <v>109</v>
+      <c r="D162" s="7" t="n">
+        <v>18588</v>
       </c>
       <c r="E162" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" s="14" t="s">
-        <v>110</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G162" s="0"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="14" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>102</v>
@@ -4546,93 +4598,93 @@
         <v>11</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E163" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G163" s="0"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F164" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G164" s="0"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="16"/>
+      <c r="B165" s="16"/>
+      <c r="C165" s="16"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="16"/>
+      <c r="F165" s="16"/>
+      <c r="G165" s="16"/>
+    </row>
+    <row r="166" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B164" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E164" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F164" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G164" s="0"/>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="14" t="s">
+      <c r="B166" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F166" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G166" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B165" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E165" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F165" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G165" s="0"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="16"/>
-      <c r="B166" s="16"/>
-      <c r="C166" s="16"/>
-      <c r="D166" s="17"/>
-      <c r="E166" s="16"/>
-      <c r="F166" s="16"/>
-      <c r="G166" s="16"/>
-    </row>
-    <row r="167" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="14" t="s">
-        <v>181</v>
-      </c>
       <c r="B167" s="7" t="s">
         <v>102</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D167" s="13" t="s">
-        <v>109</v>
+      <c r="D167" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="E167" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G167" s="14" t="s">
-        <v>110</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G167" s="0"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B168" s="7" t="s">
         <v>102</v>
@@ -4640,20 +4692,20 @@
       <c r="C168" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D168" s="7" t="s">
-        <v>182</v>
+      <c r="D168" s="7" t="n">
+        <v>10303</v>
       </c>
       <c r="E168" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G168" s="0"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B169" s="7" t="s">
         <v>102</v>
@@ -4662,7 +4714,7 @@
         <v>11</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E169" s="7" t="s">
         <v>22</v>
@@ -4674,7 +4726,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B170" s="7" t="s">
         <v>102</v>
@@ -4683,13 +4735,13 @@
         <v>11</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E170" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G170" s="0"/>
     </row>
@@ -4704,7 +4756,7 @@
     </row>
     <row r="172" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>102</v>
@@ -4727,7 +4779,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>102</v>
@@ -4736,7 +4788,7 @@
         <v>11</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E173" s="7" t="s">
         <v>22</v>
@@ -4748,7 +4800,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B174" s="7" t="s">
         <v>102</v>
@@ -4756,94 +4808,94 @@
       <c r="C174" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D174" s="7" t="s">
-        <v>187</v>
+      <c r="D174" s="7" t="n">
+        <v>14804</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G174" s="0"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F175" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G175" s="0"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F176" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G176" s="0"/>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="16"/>
+      <c r="B177" s="16"/>
+      <c r="C177" s="16"/>
+      <c r="D177" s="17"/>
+      <c r="E177" s="16"/>
+      <c r="F177" s="16"/>
+      <c r="G177" s="16"/>
+    </row>
+    <row r="178" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="B175" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D175" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E175" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F175" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G175" s="0"/>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="16"/>
-      <c r="B176" s="16"/>
-      <c r="C176" s="16"/>
-      <c r="D176" s="17"/>
-      <c r="E176" s="16"/>
-      <c r="F176" s="16"/>
-      <c r="G176" s="16"/>
-    </row>
-    <row r="177" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D177" s="13" t="s">
+      <c r="B178" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E177" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F177" s="7" t="s">
+      <c r="E178" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F178" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G177" s="14" t="s">
+      <c r="G178" s="14" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D178" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E178" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F178" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G178" s="0"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>102</v>
@@ -4852,19 +4904,19 @@
         <v>11</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E179" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G179" s="0"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>102</v>
@@ -4872,20 +4924,20 @@
       <c r="C180" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D180" s="7" t="s">
-        <v>192</v>
+      <c r="D180" s="7" t="n">
+        <v>15904</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="G180" s="0"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>102</v>
@@ -4894,19 +4946,19 @@
         <v>11</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E181" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="G181" s="0"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>102</v>
@@ -4915,7 +4967,7 @@
         <v>11</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E182" s="7" t="s">
         <v>22</v>
@@ -4936,7 +4988,7 @@
     </row>
     <row r="184" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="14" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>102</v>
@@ -4959,7 +5011,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="14" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>102</v>
@@ -4968,7 +5020,7 @@
         <v>11</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E185" s="7" t="s">
         <v>22</v>
@@ -4980,7 +5032,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="14" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>102</v>
@@ -4989,7 +5041,7 @@
         <v>11</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E186" s="7" t="s">
         <v>22</v>
@@ -5001,7 +5053,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="14" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>102</v>
@@ -5010,7 +5062,7 @@
         <v>11</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E187" s="7" t="s">
         <v>22</v>
@@ -5021,17 +5073,29 @@
       <c r="G187" s="0"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="16"/>
-      <c r="B188" s="16"/>
-      <c r="C188" s="16"/>
-      <c r="D188" s="17"/>
-      <c r="E188" s="16"/>
-      <c r="F188" s="16"/>
-      <c r="G188" s="16"/>
-    </row>
-    <row r="189" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E188" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F188" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G188" s="0"/>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="14" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>102</v>
@@ -5039,349 +5103,337 @@
       <c r="C189" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D189" s="13" t="s">
+      <c r="D189" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F189" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G189" s="0"/>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="16"/>
+      <c r="B190" s="16"/>
+      <c r="C190" s="16"/>
+      <c r="D190" s="17"/>
+      <c r="E190" s="16"/>
+      <c r="F190" s="16"/>
+      <c r="G190" s="16"/>
+    </row>
+    <row r="191" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D191" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E189" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F189" s="7" t="s">
+      <c r="E191" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F191" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G189" s="14" t="s">
+      <c r="G191" s="14" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="190" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D190" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="E190" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F190" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G190" s="0"/>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D191" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E191" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F191" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G191" s="0"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F192" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G192" s="0"/>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F193" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G193" s="0"/>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F194" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G194" s="0"/>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="16"/>
+      <c r="B195" s="16"/>
+      <c r="C195" s="16"/>
+      <c r="D195" s="17"/>
+      <c r="E195" s="16"/>
+      <c r="F195" s="16"/>
+      <c r="G195" s="16"/>
+    </row>
+    <row r="196" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="B192" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D192" s="7" t="s">
+      <c r="B196" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D196" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F196" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G196" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D197" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E197" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F197" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G197" s="0"/>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D198" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E198" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F198" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G198" s="0"/>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D199" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E192" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F192" s="7" t="s">
+      <c r="E199" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F199" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G192" s="0"/>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="16"/>
-      <c r="B193" s="16"/>
-      <c r="C193" s="16"/>
-      <c r="D193" s="17"/>
-      <c r="E193" s="16"/>
-      <c r="F193" s="16"/>
-      <c r="G193" s="16"/>
-    </row>
-    <row r="194" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="14" t="s">
+      <c r="G199" s="0"/>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="16"/>
+      <c r="B200" s="16"/>
+      <c r="C200" s="16"/>
+      <c r="D200" s="17"/>
+      <c r="E200" s="16"/>
+      <c r="F200" s="16"/>
+      <c r="G200" s="16"/>
+    </row>
+    <row r="201" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="B194" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D194" s="13" t="s">
+      <c r="B201" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D201" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E194" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F194" s="7" t="s">
+      <c r="E201" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F201" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G194" s="14" t="s">
+      <c r="G201" s="14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="14" t="s">
+    <row r="202" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="B195" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D195" s="13" t="s">
+      <c r="B202" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D202" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="E195" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F195" s="7" t="s">
+      <c r="E202" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F202" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G195" s="0"/>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="14" t="s">
+      <c r="G202" s="0"/>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="B196" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C196" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D196" s="7" t="s">
+      <c r="B203" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D203" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E196" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F196" s="7" t="s">
+      <c r="E203" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F203" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G196" s="0"/>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="14" t="s">
+      <c r="G203" s="0"/>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="B197" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C197" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D197" s="7" t="s">
+      <c r="B204" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D204" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="E197" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F197" s="7" t="s">
+      <c r="E204" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F204" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G197" s="0"/>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="16"/>
-      <c r="B198" s="16"/>
-      <c r="C198" s="16"/>
-      <c r="D198" s="17"/>
-      <c r="E198" s="16"/>
-      <c r="F198" s="16"/>
-      <c r="G198" s="16"/>
-    </row>
-    <row r="199" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="14" t="s">
+      <c r="G204" s="0"/>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="16"/>
+      <c r="B205" s="16"/>
+      <c r="C205" s="16"/>
+      <c r="D205" s="17"/>
+      <c r="E205" s="16"/>
+      <c r="F205" s="16"/>
+      <c r="G205" s="16"/>
+    </row>
+    <row r="206" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="B199" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C199" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D199" s="13" t="s">
+      <c r="B206" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D206" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E199" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F199" s="7" t="s">
+      <c r="E206" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F206" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G199" s="14" t="s">
+      <c r="G206" s="14" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C200" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D200" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E200" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F200" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G200" s="0"/>
-    </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="B201" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C201" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D201" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E201" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F201" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G201" s="0"/>
-    </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="B202" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C202" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D202" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="E202" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F202" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G202" s="0"/>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="16"/>
-      <c r="B203" s="16"/>
-      <c r="C203" s="16"/>
-      <c r="D203" s="17"/>
-      <c r="E203" s="16"/>
-      <c r="F203" s="16"/>
-      <c r="G203" s="16"/>
-    </row>
-    <row r="204" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B204" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D204" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E204" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F204" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G204" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B205" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D205" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E205" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F205" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G205" s="0"/>
-    </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B206" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C206" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D206" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="E206" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F206" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G206" s="0"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B207" s="7" t="s">
         <v>102</v>
@@ -5390,19 +5442,19 @@
         <v>11</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E207" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="G207" s="0"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>102</v>
@@ -5411,19 +5463,19 @@
         <v>11</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E208" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="G208" s="0"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>102</v>
@@ -5432,7 +5484,7 @@
         <v>11</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E209" s="7" t="s">
         <v>22</v>
@@ -5453,7 +5505,7 @@
     </row>
     <row r="211" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="14" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>102</v>
@@ -5474,9 +5526,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="14" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B212" s="7" t="s">
         <v>102</v>
@@ -5484,8 +5536,8 @@
       <c r="C212" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D212" s="13" t="s">
-        <v>216</v>
+      <c r="D212" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="E212" s="7" t="s">
         <v>22</v>
@@ -5497,7 +5549,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="14" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B213" s="7" t="s">
         <v>102</v>
@@ -5506,7 +5558,7 @@
         <v>11</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E213" s="7" t="s">
         <v>22</v>
@@ -5518,7 +5570,7 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="14" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>102</v>
@@ -5527,7 +5579,7 @@
         <v>11</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E214" s="7" t="s">
         <v>22</v>
@@ -5539,7 +5591,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="14" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>102</v>
@@ -5548,7 +5600,7 @@
         <v>11</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E215" s="7" t="s">
         <v>22</v>
@@ -5560,7 +5612,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="14" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B216" s="7" t="s">
         <v>102</v>
@@ -5569,7 +5621,7 @@
         <v>11</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E216" s="7" t="s">
         <v>22</v>
@@ -5580,27 +5632,15 @@
       <c r="G216" s="0"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B217" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C217" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D217" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E217" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F217" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G217" s="0"/>
-    </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="16"/>
+      <c r="B217" s="16"/>
+      <c r="C217" s="16"/>
+      <c r="D217" s="17"/>
+      <c r="E217" s="16"/>
+      <c r="F217" s="16"/>
+      <c r="G217" s="16"/>
+    </row>
+    <row r="218" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="14" t="s">
         <v>215</v>
       </c>
@@ -5610,29 +5650,43 @@
       <c r="C218" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D218" s="7" t="s">
-        <v>222</v>
+      <c r="D218" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="E218" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F218" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G218" s="0"/>
-    </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="16"/>
-      <c r="B219" s="16"/>
-      <c r="C219" s="16"/>
-      <c r="D219" s="17"/>
-      <c r="E219" s="16"/>
-      <c r="F219" s="16"/>
-      <c r="G219" s="16"/>
-    </row>
-    <row r="220" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+      <c r="G218" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D219" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E219" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F219" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G219" s="0"/>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="14" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>102</v>
@@ -5640,22 +5694,20 @@
       <c r="C220" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D220" s="13" t="s">
-        <v>109</v>
+      <c r="D220" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="E220" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F220" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G220" s="14" t="s">
-        <v>110</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G220" s="0"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="14" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>102</v>
@@ -5664,19 +5716,19 @@
         <v>11</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E221" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F221" s="7" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="G221" s="0"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="14" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>102</v>
@@ -5685,19 +5737,19 @@
         <v>11</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E222" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G222" s="0"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="14" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B223" s="7" t="s">
         <v>102</v>
@@ -5706,7 +5758,7 @@
         <v>11</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E223" s="7" t="s">
         <v>22</v>
@@ -5717,200 +5769,214 @@
       <c r="G223" s="0"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="16"/>
-      <c r="B224" s="16"/>
-      <c r="C224" s="16"/>
-      <c r="D224" s="17"/>
-      <c r="E224" s="16"/>
-      <c r="F224" s="16"/>
-      <c r="G224" s="16"/>
-    </row>
-    <row r="225" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E224" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F224" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G224" s="0"/>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D225" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E225" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F225" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G225" s="0"/>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="16"/>
+      <c r="B226" s="16"/>
+      <c r="C226" s="16"/>
+      <c r="D226" s="17"/>
+      <c r="E226" s="16"/>
+      <c r="F226" s="16"/>
+      <c r="G226" s="16"/>
+    </row>
+    <row r="227" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D227" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E227" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F227" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G227" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D228" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E228" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F228" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G228" s="0"/>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D229" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E229" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F229" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G229" s="0"/>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D230" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E230" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F230" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G230" s="0"/>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="16"/>
+      <c r="B231" s="16"/>
+      <c r="C231" s="16"/>
+      <c r="D231" s="17"/>
+      <c r="E231" s="16"/>
+      <c r="F231" s="16"/>
+      <c r="G231" s="16"/>
+    </row>
+    <row r="232" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="B225" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C225" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D225" s="13" t="s">
+      <c r="B232" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D232" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E225" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F225" s="7" t="s">
+      <c r="E232" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F232" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G225" s="14" t="s">
+      <c r="G232" s="14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="14" t="s">
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="B226" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C226" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D226" s="7" t="s">
+      <c r="B233" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D233" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E226" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F226" s="7" t="s">
+      <c r="E233" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F233" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G226" s="0"/>
-    </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="14" t="s">
+      <c r="G233" s="0"/>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="B227" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C227" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D227" s="7" t="s">
+      <c r="B234" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D234" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E227" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F227" s="7" t="s">
+      <c r="E234" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F234" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G227" s="0"/>
-    </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0"/>
-      <c r="B228" s="0"/>
-      <c r="C228" s="0"/>
-      <c r="D228" s="15"/>
-      <c r="E228" s="0"/>
-      <c r="F228" s="0"/>
-      <c r="G228" s="0"/>
-    </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B229" s="9"/>
-      <c r="C229" s="9"/>
-      <c r="D229" s="10"/>
-      <c r="E229" s="9"/>
-      <c r="F229" s="9"/>
-      <c r="G229" s="9"/>
-    </row>
-    <row r="230" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B230" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C230" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D230" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E230" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F230" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G230" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B231" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C231" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D231" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="E231" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F231" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G231" s="12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B232" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C232" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D232" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="E232" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F232" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G232" s="14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B233" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C233" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D233" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E233" s="7"/>
-      <c r="F233" s="7"/>
-      <c r="G233" s="0"/>
-    </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B234" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C234" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D234" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E234" s="7"/>
-      <c r="F234" s="7"/>
       <c r="G234" s="0"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5922,144 +5988,132 @@
       <c r="F235" s="0"/>
       <c r="G235" s="0"/>
     </row>
-    <row r="236" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B236" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C236" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D236" s="13" t="s">
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B236" s="9"/>
+      <c r="C236" s="9"/>
+      <c r="D236" s="10"/>
+      <c r="E236" s="9"/>
+      <c r="F236" s="9"/>
+      <c r="G236" s="9"/>
+    </row>
+    <row r="237" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D237" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E236" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F236" s="7" t="s">
+      <c r="E237" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F237" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G236" s="14" t="s">
+      <c r="G237" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B237" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C237" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D237" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="E237" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F237" s="7" t="s">
+    <row r="238" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D238" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E238" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F238" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G237" s="12" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B238" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C238" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D238" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="E238" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F238" s="7" t="s">
+      <c r="G238" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D239" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E239" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F239" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G238" s="12" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B239" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C239" s="7" t="s">
+      <c r="G239" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C240" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D239" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="E239" s="7"/>
-      <c r="F239" s="7"/>
-      <c r="G239" s="0"/>
-    </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B240" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C240" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D240" s="11" t="s">
-        <v>247</v>
+      <c r="D240" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="E240" s="7"/>
       <c r="F240" s="7"/>
       <c r="G240" s="0"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0"/>
-      <c r="B241" s="7"/>
-      <c r="C241" s="7"/>
-      <c r="D241" s="13"/>
+      <c r="A241" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D241" s="11" t="s">
+        <v>240</v>
+      </c>
       <c r="E241" s="7"/>
       <c r="F241" s="7"/>
       <c r="G241" s="0"/>
     </row>
-    <row r="242" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="B242" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C242" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D242" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E242" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F242" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G242" s="14" t="s">
-        <v>232</v>
-      </c>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0"/>
+      <c r="B242" s="0"/>
+      <c r="C242" s="0"/>
+      <c r="D242" s="15"/>
+      <c r="E242" s="0"/>
+      <c r="F242" s="0"/>
+      <c r="G242" s="0"/>
     </row>
     <row r="243" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="14" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B243" s="7" t="s">
         <v>230</v>
@@ -6067,22 +6121,22 @@
       <c r="C243" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D243" s="11" t="s">
-        <v>249</v>
+      <c r="D243" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="E243" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F243" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G243" s="12" t="s">
-        <v>250</v>
+        <v>14</v>
+      </c>
+      <c r="G243" s="14" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="14" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B244" s="7" t="s">
         <v>230</v>
@@ -6091,199 +6145,199 @@
         <v>11</v>
       </c>
       <c r="D244" s="11" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E244" s="7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F244" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G244" s="12" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="14" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B245" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D245" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="E245" s="7"/>
-      <c r="F245" s="7"/>
-      <c r="G245" s="0"/>
+        <v>11</v>
+      </c>
+      <c r="D245" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E245" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F245" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G245" s="12" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="246" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="14" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B246" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D246" s="13" t="n">
-        <v>-3</v>
+        <v>237</v>
+      </c>
+      <c r="D246" s="13" t="s">
+        <v>246</v>
       </c>
       <c r="E246" s="7"/>
       <c r="F246" s="7"/>
       <c r="G246" s="0"/>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0"/>
-      <c r="B247" s="7"/>
-      <c r="C247" s="7"/>
-      <c r="D247" s="15"/>
+      <c r="A247" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D247" s="11" t="s">
+        <v>247</v>
+      </c>
       <c r="E247" s="7"/>
       <c r="F247" s="7"/>
       <c r="G247" s="0"/>
     </row>
-    <row r="248" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="B248" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C248" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D248" s="13" t="s">
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0"/>
+      <c r="B248" s="7"/>
+      <c r="C248" s="7"/>
+      <c r="D248" s="13"/>
+      <c r="E248" s="7"/>
+      <c r="F248" s="7"/>
+      <c r="G248" s="0"/>
+    </row>
+    <row r="249" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D249" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E248" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F248" s="7" t="s">
+      <c r="E249" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F249" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G248" s="14" t="s">
+      <c r="G249" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="B249" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C249" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D249" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E249" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F249" s="7" t="s">
+    <row r="250" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D250" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E250" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F250" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G249" s="0" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="B250" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C250" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D250" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="E250" s="7" t="s">
+      <c r="G250" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D251" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E251" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F250" s="7" t="s">
+      <c r="F251" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G250" s="0" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="B251" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C251" s="7" t="s">
+      <c r="G251" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C252" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D251" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="E251" s="7"/>
-      <c r="F251" s="7"/>
-      <c r="G251" s="0"/>
-    </row>
-    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="B252" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C252" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D252" s="7" t="n">
-        <v>-2</v>
+      <c r="D252" s="13" t="s">
+        <v>253</v>
       </c>
       <c r="E252" s="7"/>
       <c r="F252" s="7"/>
       <c r="G252" s="0"/>
     </row>
-    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0"/>
-      <c r="B253" s="0"/>
-      <c r="C253" s="0"/>
-      <c r="D253" s="15"/>
-      <c r="E253" s="0"/>
-      <c r="F253" s="0"/>
+    <row r="253" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D253" s="13" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E253" s="7"/>
+      <c r="F253" s="7"/>
       <c r="G253" s="0"/>
     </row>
-    <row r="254" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="B254" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C254" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D254" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E254" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F254" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G254" s="14" t="s">
-        <v>232</v>
-      </c>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0"/>
+      <c r="B254" s="7"/>
+      <c r="C254" s="7"/>
+      <c r="D254" s="15"/>
+      <c r="E254" s="7"/>
+      <c r="F254" s="7"/>
+      <c r="G254" s="0"/>
     </row>
     <row r="255" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="14" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B255" s="7" t="s">
         <v>230</v>
@@ -6291,111 +6345,111 @@
       <c r="C255" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D255" s="11" t="s">
-        <v>261</v>
+      <c r="D255" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="E255" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F255" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G255" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D256" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E256" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F256" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G255" s="12" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="B256" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C256" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D256" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="E256" s="7" t="s">
+      <c r="G256" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B257" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D257" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E257" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F256" s="7" t="s">
+      <c r="F257" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G256" s="12" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="B257" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C257" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D257" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="E257" s="7"/>
-      <c r="F257" s="7"/>
-      <c r="G257" s="0"/>
+      <c r="G257" s="0" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="14" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B258" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D258" s="11" t="s">
-        <v>247</v>
+        <v>237</v>
+      </c>
+      <c r="D258" s="12" t="s">
+        <v>259</v>
       </c>
       <c r="E258" s="7"/>
       <c r="F258" s="7"/>
       <c r="G258" s="0"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="14"/>
-      <c r="B259" s="0"/>
-      <c r="C259" s="0"/>
-      <c r="D259" s="15"/>
-      <c r="E259" s="0"/>
-      <c r="F259" s="0"/>
+      <c r="A259" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D259" s="7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E259" s="7"/>
+      <c r="F259" s="7"/>
       <c r="G259" s="0"/>
     </row>
-    <row r="260" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="B260" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C260" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D260" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E260" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F260" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G260" s="14" t="s">
-        <v>232</v>
-      </c>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0"/>
+      <c r="B260" s="0"/>
+      <c r="C260" s="0"/>
+      <c r="D260" s="15"/>
+      <c r="E260" s="0"/>
+      <c r="F260" s="0"/>
+      <c r="G260" s="0"/>
     </row>
     <row r="261" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="14" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B261" s="7" t="s">
         <v>230</v>
@@ -6403,22 +6457,22 @@
       <c r="C261" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D261" s="11" t="s">
-        <v>267</v>
+      <c r="D261" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="E261" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F261" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G261" s="12" t="s">
-        <v>268</v>
+        <v>14</v>
+      </c>
+      <c r="G261" s="14" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="14" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B262" s="7" t="s">
         <v>230</v>
@@ -6427,108 +6481,110 @@
         <v>11</v>
       </c>
       <c r="D262" s="11" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E262" s="7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F262" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G262" s="12" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="14" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B263" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D263" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="E263" s="7"/>
-      <c r="F263" s="7"/>
-      <c r="G263" s="0"/>
+        <v>11</v>
+      </c>
+      <c r="D263" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E263" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F263" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G263" s="12" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="264" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="14" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B264" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D264" s="13" t="n">
-        <v>-3</v>
+        <v>237</v>
+      </c>
+      <c r="D264" s="13" t="s">
+        <v>265</v>
       </c>
       <c r="E264" s="7"/>
       <c r="F264" s="7"/>
       <c r="G264" s="0"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="0"/>
-      <c r="B265" s="0"/>
-      <c r="C265" s="0"/>
-      <c r="D265" s="15"/>
-      <c r="E265" s="0"/>
-      <c r="F265" s="0"/>
+      <c r="A265" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B265" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D265" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E265" s="7"/>
+      <c r="F265" s="7"/>
       <c r="G265" s="0"/>
     </row>
-    <row r="266" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B266" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C266" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D266" s="13" t="s">
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="14"/>
+      <c r="B266" s="0"/>
+      <c r="C266" s="0"/>
+      <c r="D266" s="15"/>
+      <c r="E266" s="0"/>
+      <c r="F266" s="0"/>
+      <c r="G266" s="0"/>
+    </row>
+    <row r="267" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B267" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D267" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E266" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F266" s="7" t="s">
+      <c r="E267" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F267" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G266" s="14" t="s">
+      <c r="G267" s="14" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B267" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C267" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D267" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="E267" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F267" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G267" s="0"/>
     </row>
     <row r="268" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="14" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B268" s="7" t="s">
         <v>230</v>
@@ -6536,8 +6592,8 @@
       <c r="C268" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D268" s="7" t="s">
-        <v>274</v>
+      <c r="D268" s="11" t="s">
+        <v>267</v>
       </c>
       <c r="E268" s="7" t="s">
         <v>22</v>
@@ -6545,210 +6601,212 @@
       <c r="F268" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G268" s="19" t="s">
-        <v>275</v>
+      <c r="G268" s="12" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="14" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B269" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D269" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="E269" s="7"/>
-      <c r="F269" s="7"/>
-      <c r="G269" s="0"/>
+        <v>11</v>
+      </c>
+      <c r="D269" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="E269" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F269" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G269" s="12" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="270" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="14" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B270" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D270" s="13" t="n">
-        <v>-4</v>
+        <v>237</v>
+      </c>
+      <c r="D270" s="13" t="s">
+        <v>271</v>
       </c>
       <c r="E270" s="7"/>
       <c r="F270" s="7"/>
       <c r="G270" s="0"/>
     </row>
-    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="0"/>
-      <c r="B271" s="0"/>
-      <c r="C271" s="0"/>
-      <c r="D271" s="15"/>
-      <c r="E271" s="0"/>
-      <c r="F271" s="0"/>
+    <row r="271" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B271" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D271" s="13" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E271" s="7"/>
+      <c r="F271" s="7"/>
       <c r="G271" s="0"/>
     </row>
-    <row r="272" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="B272" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C272" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D272" s="13" t="s">
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0"/>
+      <c r="B272" s="0"/>
+      <c r="C272" s="0"/>
+      <c r="D272" s="15"/>
+      <c r="E272" s="0"/>
+      <c r="F272" s="0"/>
+      <c r="G272" s="0"/>
+    </row>
+    <row r="273" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B273" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D273" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E272" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F272" s="7" t="s">
+      <c r="E273" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F273" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G272" s="14" t="s">
+      <c r="G273" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="B273" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C273" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D273" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="E273" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F273" s="7" t="s">
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D274" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E274" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F274" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G273" s="0"/>
-    </row>
-    <row r="274" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="B274" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C274" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D274" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E274" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F274" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G274" s="19" t="s">
-        <v>280</v>
-      </c>
+      <c r="G274" s="0"/>
     </row>
     <row r="275" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="14" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B275" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C275" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D275" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E275" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F275" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G275" s="19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B276" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C276" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D275" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="E275" s="7"/>
-      <c r="F275" s="7"/>
-      <c r="G275" s="0"/>
-    </row>
-    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="B276" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C276" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D276" s="11" t="s">
-        <v>282</v>
+      <c r="D276" s="13" t="s">
+        <v>276</v>
       </c>
       <c r="E276" s="7"/>
       <c r="F276" s="7"/>
       <c r="G276" s="0"/>
     </row>
-    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="0"/>
-      <c r="B277" s="0"/>
-      <c r="C277" s="0"/>
-      <c r="D277" s="15"/>
-      <c r="E277" s="0"/>
-      <c r="F277" s="0"/>
+    <row r="277" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D277" s="13" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E277" s="7"/>
+      <c r="F277" s="7"/>
       <c r="G277" s="0"/>
     </row>
-    <row r="278" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="B278" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C278" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D278" s="13" t="s">
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0"/>
+      <c r="B278" s="0"/>
+      <c r="C278" s="0"/>
+      <c r="D278" s="15"/>
+      <c r="E278" s="0"/>
+      <c r="F278" s="0"/>
+      <c r="G278" s="0"/>
+    </row>
+    <row r="279" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B279" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D279" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E278" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F278" s="7" t="s">
+      <c r="E279" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F279" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G278" s="14" t="s">
+      <c r="G279" s="14" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="B279" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C279" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D279" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="E279" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F279" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G279" s="0"/>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="14" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B280" s="7" t="s">
         <v>230</v>
@@ -6757,125 +6815,129 @@
         <v>11</v>
       </c>
       <c r="D280" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E280" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F280" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G280" s="0"/>
+    </row>
+    <row r="281" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B281" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D281" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E281" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F281" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G280" s="0"/>
-    </row>
-    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="0"/>
-      <c r="B281" s="0"/>
-      <c r="C281" s="0"/>
-      <c r="D281" s="15"/>
-      <c r="E281" s="0"/>
-      <c r="F281" s="0"/>
-      <c r="G281" s="0"/>
+      <c r="G281" s="19" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="282" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="14" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B282" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
       <c r="D282" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E282" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F282" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G282" s="14" t="s">
-        <v>232</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="E282" s="7"/>
+      <c r="F282" s="7"/>
+      <c r="G282" s="0"/>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="14" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B283" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C283" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D283" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="E283" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F283" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D283" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="E283" s="7"/>
+      <c r="F283" s="7"/>
+      <c r="G283" s="0"/>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0"/>
+      <c r="B284" s="0"/>
+      <c r="C284" s="0"/>
+      <c r="D284" s="15"/>
+      <c r="E284" s="0"/>
+      <c r="F284" s="0"/>
+      <c r="G284" s="0"/>
+    </row>
+    <row r="285" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B285" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D285" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E285" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F285" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G285" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B286" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D286" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E286" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F286" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G283" s="0"/>
-    </row>
-    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="B284" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C284" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D284" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="E284" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F284" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G284" s="0"/>
-    </row>
-    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="0"/>
-      <c r="B285" s="0"/>
-      <c r="C285" s="0"/>
-      <c r="D285" s="15"/>
-      <c r="E285" s="0"/>
-      <c r="F285" s="0"/>
-      <c r="G285" s="0"/>
-    </row>
-    <row r="286" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="B286" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C286" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D286" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E286" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F286" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G286" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G286" s="0"/>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="14" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B287" s="7" t="s">
         <v>230</v>
@@ -6883,8 +6945,8 @@
       <c r="C287" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D287" s="11" t="s">
-        <v>290</v>
+      <c r="D287" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="E287" s="7" t="s">
         <v>22</v>
@@ -6892,79 +6954,79 @@
       <c r="F287" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G287" s="12" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G287" s="19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="14" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B288" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D288" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="E288" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F288" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G288" s="12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>237</v>
+      </c>
+      <c r="D288" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E288" s="7"/>
+      <c r="F288" s="7"/>
+      <c r="G288" s="0"/>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="14" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B289" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C289" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D289" s="13" t="s">
-        <v>294</v>
+        <v>239</v>
+      </c>
+      <c r="D289" s="11" t="s">
+        <v>288</v>
       </c>
       <c r="E289" s="7"/>
       <c r="F289" s="7"/>
       <c r="G289" s="0"/>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="14" t="s">
+      <c r="A290" s="0"/>
+      <c r="B290" s="0"/>
+      <c r="C290" s="0"/>
+      <c r="D290" s="15"/>
+      <c r="E290" s="0"/>
+      <c r="F290" s="0"/>
+      <c r="G290" s="0"/>
+    </row>
+    <row r="291" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="B290" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C290" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D290" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="E290" s="7"/>
-      <c r="F290" s="7"/>
-      <c r="G290" s="0"/>
-    </row>
-    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="0"/>
-      <c r="B291" s="0"/>
-      <c r="C291" s="0"/>
-      <c r="D291" s="15"/>
-      <c r="E291" s="0"/>
-      <c r="F291" s="0"/>
-      <c r="G291" s="0"/>
-    </row>
-    <row r="292" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B291" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D291" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E291" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F291" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G291" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="14" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B292" s="7" t="s">
         <v>230</v>
@@ -6972,22 +7034,20 @@
       <c r="C292" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D292" s="13" t="s">
-        <v>231</v>
+      <c r="D292" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="E292" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F292" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G292" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+      <c r="G292" s="0"/>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="14" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B293" s="7" t="s">
         <v>230</v>
@@ -6995,8 +7055,8 @@
       <c r="C293" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D293" s="11" t="s">
-        <v>297</v>
+      <c r="D293" s="7" t="s">
+        <v>291</v>
       </c>
       <c r="E293" s="7" t="s">
         <v>22</v>
@@ -7004,79 +7064,79 @@
       <c r="F293" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G293" s="12" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G293" s="19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="14" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B294" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C294" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D294" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="E294" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F294" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G294" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>237</v>
+      </c>
+      <c r="D294" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="E294" s="7"/>
+      <c r="F294" s="7"/>
+      <c r="G294" s="0"/>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="14" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B295" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C295" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D295" s="13" t="s">
-        <v>301</v>
+        <v>239</v>
+      </c>
+      <c r="D295" s="11" t="s">
+        <v>294</v>
       </c>
       <c r="E295" s="7"/>
       <c r="F295" s="7"/>
       <c r="G295" s="0"/>
     </row>
-    <row r="296" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="B296" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C296" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D296" s="13" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E296" s="7"/>
-      <c r="F296" s="7"/>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0"/>
+      <c r="B296" s="0"/>
+      <c r="C296" s="0"/>
+      <c r="D296" s="15"/>
+      <c r="E296" s="0"/>
+      <c r="F296" s="0"/>
       <c r="G296" s="0"/>
     </row>
-    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="0"/>
-      <c r="B297" s="0"/>
-      <c r="C297" s="0"/>
-      <c r="D297" s="15"/>
-      <c r="E297" s="0"/>
-      <c r="F297" s="0"/>
-      <c r="G297" s="0"/>
+    <row r="297" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B297" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D297" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E297" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F297" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G297" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="298" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="14" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B298" s="7" t="s">
         <v>230</v>
@@ -7084,22 +7144,22 @@
       <c r="C298" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D298" s="13" t="s">
-        <v>231</v>
+      <c r="D298" s="11" t="s">
+        <v>296</v>
       </c>
       <c r="E298" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F298" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G298" s="14" t="s">
-        <v>232</v>
+        <v>90</v>
+      </c>
+      <c r="G298" s="12" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="14" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B299" s="7" t="s">
         <v>230</v>
@@ -7108,87 +7168,87 @@
         <v>11</v>
       </c>
       <c r="D299" s="11" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E299" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F299" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G299" s="12" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="14" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B300" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D300" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="E300" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F300" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G300" s="12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>237</v>
+      </c>
+      <c r="D300" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="E300" s="7"/>
+      <c r="F300" s="7"/>
+      <c r="G300" s="0"/>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="14" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B301" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D301" s="13" t="s">
-        <v>306</v>
+        <v>239</v>
+      </c>
+      <c r="D301" s="11" t="s">
+        <v>294</v>
       </c>
       <c r="E301" s="7"/>
       <c r="F301" s="7"/>
       <c r="G301" s="0"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="B302" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C302" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D302" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E302" s="7"/>
-      <c r="F302" s="7"/>
+      <c r="A302" s="0"/>
+      <c r="B302" s="0"/>
+      <c r="C302" s="0"/>
+      <c r="D302" s="15"/>
+      <c r="E302" s="0"/>
+      <c r="F302" s="0"/>
       <c r="G302" s="0"/>
     </row>
-    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="0"/>
-      <c r="B303" s="0"/>
-      <c r="C303" s="0"/>
-      <c r="D303" s="15"/>
-      <c r="E303" s="0"/>
-      <c r="F303" s="0"/>
-      <c r="G303" s="0"/>
+    <row r="303" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B303" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C303" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D303" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E303" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F303" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G303" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="304" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="14" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B304" s="7" t="s">
         <v>230</v>
@@ -7196,22 +7256,22 @@
       <c r="C304" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D304" s="13" t="s">
-        <v>231</v>
+      <c r="D304" s="11" t="s">
+        <v>302</v>
       </c>
       <c r="E304" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F304" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G304" s="14" t="s">
-        <v>232</v>
+        <v>90</v>
+      </c>
+      <c r="G304" s="12" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="14" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B305" s="7" t="s">
         <v>230</v>
@@ -7220,87 +7280,87 @@
         <v>11</v>
       </c>
       <c r="D305" s="11" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E305" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F305" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G305" s="12" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="14" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B306" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D306" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="E306" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F306" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G306" s="12" t="s">
-        <v>311</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D306" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="E306" s="7"/>
+      <c r="F306" s="7"/>
+      <c r="G306" s="0"/>
     </row>
     <row r="307" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="14" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B307" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D307" s="13" t="s">
-        <v>311</v>
+        <v>239</v>
+      </c>
+      <c r="D307" s="13" t="n">
+        <v>-3</v>
       </c>
       <c r="E307" s="7"/>
       <c r="F307" s="7"/>
       <c r="G307" s="0"/>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="14" t="s">
+      <c r="A308" s="0"/>
+      <c r="B308" s="0"/>
+      <c r="C308" s="0"/>
+      <c r="D308" s="15"/>
+      <c r="E308" s="0"/>
+      <c r="F308" s="0"/>
+      <c r="G308" s="0"/>
+    </row>
+    <row r="309" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="B308" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C308" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D308" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E308" s="7"/>
-      <c r="F308" s="7"/>
-      <c r="G308" s="0"/>
-    </row>
-    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="0"/>
-      <c r="B309" s="0"/>
-      <c r="C309" s="0"/>
-      <c r="D309" s="15"/>
-      <c r="E309" s="0"/>
-      <c r="F309" s="0"/>
-      <c r="G309" s="0"/>
+      <c r="B309" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C309" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D309" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E309" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F309" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G309" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="310" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="14" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B310" s="7" t="s">
         <v>230</v>
@@ -7308,22 +7368,22 @@
       <c r="C310" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D310" s="13" t="s">
-        <v>231</v>
+      <c r="D310" s="11" t="s">
+        <v>308</v>
       </c>
       <c r="E310" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F310" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G310" s="14" t="s">
-        <v>232</v>
+        <v>90</v>
+      </c>
+      <c r="G310" s="12" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="14" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B311" s="7" t="s">
         <v>230</v>
@@ -7332,87 +7392,87 @@
         <v>11</v>
       </c>
       <c r="D311" s="11" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E311" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F311" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G311" s="12" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="14" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B312" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D312" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="E312" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F312" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G312" s="12" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="313" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>237</v>
+      </c>
+      <c r="D312" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="E312" s="7"/>
+      <c r="F312" s="7"/>
+      <c r="G312" s="0"/>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="14" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B313" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D313" s="13" t="s">
-        <v>317</v>
+        <v>239</v>
+      </c>
+      <c r="D313" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="E313" s="7"/>
       <c r="F313" s="7"/>
       <c r="G313" s="0"/>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="14" t="s">
+      <c r="A314" s="0"/>
+      <c r="B314" s="0"/>
+      <c r="C314" s="0"/>
+      <c r="D314" s="15"/>
+      <c r="E314" s="0"/>
+      <c r="F314" s="0"/>
+      <c r="G314" s="0"/>
+    </row>
+    <row r="315" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="B314" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C314" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D314" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="E314" s="7"/>
-      <c r="F314" s="7"/>
-      <c r="G314" s="0"/>
-    </row>
-    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="14"/>
-      <c r="B315" s="7"/>
-      <c r="C315" s="7"/>
-      <c r="D315" s="11"/>
-      <c r="E315" s="7"/>
-      <c r="F315" s="7"/>
-      <c r="G315" s="0"/>
+      <c r="B315" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C315" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D315" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E315" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F315" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G315" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="316" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="14" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B316" s="7" t="s">
         <v>230</v>
@@ -7420,22 +7480,22 @@
       <c r="C316" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D316" s="13" t="s">
-        <v>231</v>
+      <c r="D316" s="11" t="s">
+        <v>313</v>
       </c>
       <c r="E316" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F316" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G316" s="14" t="s">
-        <v>232</v>
+        <v>90</v>
+      </c>
+      <c r="G316" s="12" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="14" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B317" s="7" t="s">
         <v>230</v>
@@ -7444,87 +7504,87 @@
         <v>11</v>
       </c>
       <c r="D317" s="11" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E317" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F317" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G317" s="12" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="14" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B318" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D318" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="E318" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F318" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G318" s="12" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="319" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>237</v>
+      </c>
+      <c r="D318" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="E318" s="7"/>
+      <c r="F318" s="7"/>
+      <c r="G318" s="0"/>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="14" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B319" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D319" s="13" t="s">
-        <v>324</v>
+        <v>239</v>
+      </c>
+      <c r="D319" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="E319" s="7"/>
       <c r="F319" s="7"/>
       <c r="G319" s="0"/>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="B320" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C320" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D320" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E320" s="7"/>
-      <c r="F320" s="7"/>
+      <c r="A320" s="0"/>
+      <c r="B320" s="0"/>
+      <c r="C320" s="0"/>
+      <c r="D320" s="15"/>
+      <c r="E320" s="0"/>
+      <c r="F320" s="0"/>
       <c r="G320" s="0"/>
     </row>
-    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="0"/>
-      <c r="B321" s="0"/>
-      <c r="C321" s="0"/>
-      <c r="D321" s="15"/>
-      <c r="E321" s="0"/>
-      <c r="F321" s="0"/>
-      <c r="G321" s="0"/>
+    <row r="321" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="B321" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C321" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D321" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E321" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F321" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G321" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="322" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="14" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B322" s="7" t="s">
         <v>230</v>
@@ -7532,22 +7592,22 @@
       <c r="C322" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D322" s="13" t="s">
-        <v>231</v>
+      <c r="D322" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="E322" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F322" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G322" s="14" t="s">
-        <v>232</v>
+        <v>90</v>
+      </c>
+      <c r="G322" s="12" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="14" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B323" s="7" t="s">
         <v>230</v>
@@ -7556,7 +7616,7 @@
         <v>11</v>
       </c>
       <c r="D323" s="11" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E323" s="7" t="s">
         <v>22</v>
@@ -7565,78 +7625,78 @@
         <v>92</v>
       </c>
       <c r="G323" s="12" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="14" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B324" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D324" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="E324" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F324" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G324" s="12" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="325" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>237</v>
+      </c>
+      <c r="D324" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="E324" s="7"/>
+      <c r="F324" s="7"/>
+      <c r="G324" s="0"/>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="14" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B325" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C325" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D325" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="E325" s="0"/>
+        <v>239</v>
+      </c>
+      <c r="D325" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="E325" s="7"/>
       <c r="F325" s="7"/>
       <c r="G325" s="0"/>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="B326" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C326" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D326" s="11" t="s">
-        <v>295</v>
-      </c>
+      <c r="A326" s="14"/>
+      <c r="B326" s="7"/>
+      <c r="C326" s="7"/>
+      <c r="D326" s="11"/>
       <c r="E326" s="7"/>
       <c r="F326" s="7"/>
       <c r="G326" s="0"/>
     </row>
-    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="0"/>
-      <c r="B327" s="0"/>
-      <c r="C327" s="0"/>
-      <c r="D327" s="15"/>
-      <c r="E327" s="0"/>
-      <c r="F327" s="0"/>
-      <c r="G327" s="0"/>
+    <row r="327" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="B327" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C327" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D327" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E327" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F327" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G327" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="328" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="14" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B328" s="7" t="s">
         <v>230</v>
@@ -7644,22 +7704,22 @@
       <c r="C328" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D328" s="13" t="s">
-        <v>231</v>
+      <c r="D328" s="11" t="s">
+        <v>325</v>
       </c>
       <c r="E328" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F328" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G328" s="14" t="s">
-        <v>232</v>
+        <v>90</v>
+      </c>
+      <c r="G328" s="12" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="14" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B329" s="7" t="s">
         <v>230</v>
@@ -7668,87 +7728,87 @@
         <v>11</v>
       </c>
       <c r="D329" s="11" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E329" s="7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F329" s="7" t="s">
         <v>92</v>
       </c>
       <c r="G329" s="12" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="14" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B330" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D330" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="E330" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F330" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G330" s="12" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>237</v>
+      </c>
+      <c r="D330" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="E330" s="7"/>
+      <c r="F330" s="7"/>
+      <c r="G330" s="0"/>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="14" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B331" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D331" s="13" t="s">
-        <v>336</v>
+        <v>239</v>
+      </c>
+      <c r="D331" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="E331" s="7"/>
       <c r="F331" s="7"/>
       <c r="G331" s="0"/>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="B332" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C332" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D332" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="E332" s="7"/>
-      <c r="F332" s="7"/>
+      <c r="A332" s="0"/>
+      <c r="B332" s="0"/>
+      <c r="C332" s="0"/>
+      <c r="D332" s="15"/>
+      <c r="E332" s="0"/>
+      <c r="F332" s="0"/>
       <c r="G332" s="0"/>
     </row>
-    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="0"/>
-      <c r="B333" s="0"/>
-      <c r="C333" s="0"/>
-      <c r="D333" s="15"/>
-      <c r="E333" s="0"/>
-      <c r="F333" s="0"/>
-      <c r="G333" s="0"/>
+    <row r="333" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="B333" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C333" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D333" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E333" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F333" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G333" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="334" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="14" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B334" s="7" t="s">
         <v>230</v>
@@ -7756,22 +7816,22 @@
       <c r="C334" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D334" s="13" t="s">
-        <v>231</v>
+      <c r="D334" s="11" t="s">
+        <v>331</v>
       </c>
       <c r="E334" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F334" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G334" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+      <c r="G334" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="14" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B335" s="7" t="s">
         <v>230</v>
@@ -7779,84 +7839,88 @@
       <c r="C335" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D335" s="7" t="s">
-        <v>338</v>
+      <c r="D335" s="11" t="s">
+        <v>333</v>
       </c>
       <c r="E335" s="7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F335" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G335" s="0"/>
-    </row>
-    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+      <c r="G335" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="14" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B336" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D336" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="E336" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F336" s="7" t="s">
-        <v>90</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D336" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="E336" s="0"/>
+      <c r="F336" s="7"/>
       <c r="G336" s="0"/>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="14" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B337" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C337" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D337" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
+      </c>
+      <c r="D337" s="11" t="s">
+        <v>294</v>
       </c>
       <c r="E337" s="7"/>
       <c r="F337" s="7"/>
       <c r="G337" s="0"/>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="B338" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C338" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D338" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E338" s="7"/>
-      <c r="F338" s="7"/>
+      <c r="A338" s="0"/>
+      <c r="B338" s="0"/>
+      <c r="C338" s="0"/>
+      <c r="D338" s="15"/>
+      <c r="E338" s="0"/>
+      <c r="F338" s="0"/>
       <c r="G338" s="0"/>
     </row>
-    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="0"/>
-      <c r="B339" s="0"/>
-      <c r="C339" s="0"/>
-      <c r="D339" s="15"/>
-      <c r="E339" s="0"/>
-      <c r="F339" s="0"/>
-      <c r="G339" s="0"/>
+    <row r="339" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B339" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C339" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D339" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E339" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F339" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G339" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="340" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="14" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B340" s="7" t="s">
         <v>230</v>
@@ -7864,111 +7928,111 @@
       <c r="C340" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D340" s="13" t="s">
-        <v>231</v>
+      <c r="D340" s="11" t="s">
+        <v>337</v>
       </c>
       <c r="E340" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F340" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G340" s="14" t="s">
-        <v>232</v>
+        <v>92</v>
+      </c>
+      <c r="G340" s="12" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B341" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C341" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D341" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="E341" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F341" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G341" s="12" t="s">
         <v>340</v>
-      </c>
-      <c r="B341" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C341" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D341" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E341" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F341" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G341" s="12" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="14" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B342" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D342" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="E342" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F342" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G342" s="12" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="343" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>237</v>
+      </c>
+      <c r="D342" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="E342" s="7"/>
+      <c r="F342" s="7"/>
+      <c r="G342" s="0"/>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="14" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B343" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C343" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D343" s="13" t="s">
-        <v>330</v>
+        <v>239</v>
+      </c>
+      <c r="D343" s="11" t="s">
+        <v>294</v>
       </c>
       <c r="E343" s="7"/>
       <c r="F343" s="7"/>
       <c r="G343" s="0"/>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="B344" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C344" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D344" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="E344" s="7"/>
-      <c r="F344" s="7"/>
+      <c r="A344" s="0"/>
+      <c r="B344" s="0"/>
+      <c r="C344" s="0"/>
+      <c r="D344" s="15"/>
+      <c r="E344" s="0"/>
+      <c r="F344" s="0"/>
       <c r="G344" s="0"/>
     </row>
-    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="0"/>
-      <c r="B345" s="0"/>
-      <c r="C345" s="0"/>
-      <c r="D345" s="15"/>
-      <c r="E345" s="0"/>
-      <c r="F345" s="0"/>
-      <c r="G345" s="0"/>
-    </row>
-    <row r="346" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="B345" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C345" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D345" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E345" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F345" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G345" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="14" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B346" s="7" t="s">
         <v>230</v>
@@ -7976,22 +8040,20 @@
       <c r="C346" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D346" s="13" t="s">
-        <v>231</v>
+      <c r="D346" s="7" t="s">
+        <v>343</v>
       </c>
       <c r="E346" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F346" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G346" s="14" t="s">
-        <v>232</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G346" s="0"/>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="14" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B347" s="7" t="s">
         <v>230</v>
@@ -8000,417 +8062,417 @@
         <v>11</v>
       </c>
       <c r="D347" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E347" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F347" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G347" s="0"/>
     </row>
-    <row r="348" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="14" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B348" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C348" s="7" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
       <c r="D348" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="E348" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F348" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G348" s="19" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>238</v>
+      </c>
+      <c r="E348" s="7"/>
+      <c r="F348" s="7"/>
+      <c r="G348" s="0"/>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="14" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B349" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C349" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D349" s="13" t="s">
-        <v>330</v>
+        <v>239</v>
+      </c>
+      <c r="D349" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="E349" s="7"/>
       <c r="F349" s="7"/>
       <c r="G349" s="0"/>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="14" t="s">
+      <c r="A350" s="0"/>
+      <c r="B350" s="0"/>
+      <c r="C350" s="0"/>
+      <c r="D350" s="15"/>
+      <c r="E350" s="0"/>
+      <c r="F350" s="0"/>
+      <c r="G350" s="0"/>
+    </row>
+    <row r="351" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B350" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C350" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D350" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="E350" s="7"/>
-      <c r="F350" s="7"/>
-      <c r="G350" s="0"/>
-    </row>
-    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="0"/>
-      <c r="B351" s="0"/>
-      <c r="C351" s="0"/>
-      <c r="D351" s="15"/>
-      <c r="E351" s="0"/>
-      <c r="F351" s="0"/>
-      <c r="G351" s="0"/>
+      <c r="B351" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C351" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D351" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E351" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F351" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G351" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="352" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B352" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C352" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D352" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="E352" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F352" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G352" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B353" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C353" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D353" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="E353" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F353" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G353" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="B352" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C352" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D352" s="13" t="s">
+    </row>
+    <row r="354" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B354" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C354" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D354" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="E354" s="7"/>
+      <c r="F354" s="7"/>
+      <c r="G354" s="0"/>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B355" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C355" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D355" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="E355" s="7"/>
+      <c r="F355" s="7"/>
+      <c r="G355" s="0"/>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0"/>
+      <c r="B356" s="0"/>
+      <c r="C356" s="0"/>
+      <c r="D356" s="15"/>
+      <c r="E356" s="0"/>
+      <c r="F356" s="0"/>
+      <c r="G356" s="0"/>
+    </row>
+    <row r="357" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B357" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C357" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D357" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E352" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F352" s="7" t="s">
+      <c r="E357" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F357" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G352" s="14" t="s">
+      <c r="G357" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="B353" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C353" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D353" s="7" t="s">
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="E353" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F353" s="7" t="s">
+      <c r="B358" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C358" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D358" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E358" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F358" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G353" s="0"/>
-    </row>
-    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="B354" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C354" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D354" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="E354" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F354" s="7" t="s">
+      <c r="G358" s="0"/>
+    </row>
+    <row r="359" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B359" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C359" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D359" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E359" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F359" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G354" s="0"/>
-    </row>
-    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="0"/>
-      <c r="B355" s="0"/>
-      <c r="C355" s="0"/>
-      <c r="D355" s="15"/>
-      <c r="E355" s="0"/>
-      <c r="F355" s="0"/>
-      <c r="G355" s="0"/>
-    </row>
-    <row r="356" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="B356" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C356" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D356" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E356" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F356" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G356" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="B357" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C357" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D357" s="7" t="s">
+      <c r="G359" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="E357" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F357" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G357" s="0"/>
-    </row>
-    <row r="358" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A358" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="B358" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C358" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D358" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="E358" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F358" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G358" s="19" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="B359" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C359" s="7" t="s">
+    </row>
+    <row r="360" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B360" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C360" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D359" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="E359" s="7"/>
-      <c r="F359" s="7"/>
-      <c r="G359" s="0"/>
-    </row>
-    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="B360" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C360" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D360" s="11" t="s">
-        <v>247</v>
+      <c r="D360" s="13" t="s">
+        <v>335</v>
       </c>
       <c r="E360" s="7"/>
       <c r="F360" s="7"/>
       <c r="G360" s="0"/>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="0"/>
-      <c r="B361" s="0"/>
-      <c r="C361" s="0"/>
-      <c r="D361" s="15"/>
-      <c r="E361" s="0"/>
-      <c r="F361" s="0"/>
+      <c r="A361" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B361" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C361" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D361" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="E361" s="7"/>
+      <c r="F361" s="7"/>
       <c r="G361" s="0"/>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="B362" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C362" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D362" s="13" t="s">
+      <c r="A362" s="0"/>
+      <c r="B362" s="0"/>
+      <c r="C362" s="0"/>
+      <c r="D362" s="15"/>
+      <c r="E362" s="0"/>
+      <c r="F362" s="0"/>
+      <c r="G362" s="0"/>
+    </row>
+    <row r="363" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B363" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C363" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D363" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E362" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F362" s="7" t="s">
+      <c r="E363" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F363" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G362" s="14" t="s">
+      <c r="G363" s="14" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="B363" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C363" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D363" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="E363" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F363" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G363" s="0"/>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B364" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C364" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D364" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="E364" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F364" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G364" s="0"/>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B365" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C365" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D365" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="E365" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F365" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G365" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="B364" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C364" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D364" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="E364" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F364" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G364" s="0"/>
-    </row>
-    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="0"/>
-      <c r="B365" s="0"/>
-      <c r="C365" s="0"/>
-      <c r="D365" s="15"/>
-      <c r="E365" s="0"/>
-      <c r="F365" s="0"/>
-      <c r="G365" s="0"/>
-    </row>
-    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="366" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="14" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B366" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C366" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D366" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E366" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F366" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G366" s="14" t="s">
-        <v>232</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D366" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="E366" s="7"/>
+      <c r="F366" s="7"/>
+      <c r="G366" s="0"/>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="14" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B367" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C367" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D367" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="E367" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F367" s="7" t="s">
-        <v>92</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="D367" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E367" s="7"/>
+      <c r="F367" s="7"/>
       <c r="G367" s="0"/>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B368" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C368" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D368" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="E368" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F368" s="7" t="s">
-        <v>90</v>
-      </c>
+      <c r="A368" s="0"/>
+      <c r="B368" s="0"/>
+      <c r="C368" s="0"/>
+      <c r="D368" s="15"/>
+      <c r="E368" s="0"/>
+      <c r="F368" s="0"/>
       <c r="G368" s="0"/>
     </row>
-    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="0"/>
-      <c r="B369" s="0"/>
-      <c r="C369" s="0"/>
-      <c r="D369" s="15"/>
-      <c r="E369" s="0"/>
-      <c r="F369" s="0"/>
-      <c r="G369" s="0"/>
+    <row r="369" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="B369" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C369" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D369" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E369" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F369" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G369" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="14" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B370" s="7" t="s">
         <v>230</v>
@@ -8418,22 +8480,20 @@
       <c r="C370" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D370" s="13" t="s">
-        <v>231</v>
+      <c r="D370" s="7" t="s">
+        <v>360</v>
       </c>
       <c r="E370" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F370" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G370" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+      <c r="G370" s="0"/>
+    </row>
+    <row r="371" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="14" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B371" s="7" t="s">
         <v>230</v>
@@ -8442,72 +8502,64 @@
         <v>11</v>
       </c>
       <c r="D371" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E371" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F371" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G371" s="0"/>
+        <v>90</v>
+      </c>
+      <c r="G371" s="19" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="14" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B372" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D372" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="E372" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F372" s="7" t="s">
-        <v>90</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D372" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="E372" s="7"/>
+      <c r="F372" s="7"/>
       <c r="G372" s="0"/>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="0"/>
-      <c r="B373" s="0"/>
-      <c r="C373" s="0"/>
-      <c r="D373" s="15"/>
-      <c r="E373" s="0"/>
-      <c r="F373" s="0"/>
+      <c r="A373" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="B373" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C373" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D373" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E373" s="7"/>
+      <c r="F373" s="7"/>
       <c r="G373" s="0"/>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="B374" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C374" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D374" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E374" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F374" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G374" s="14" t="s">
-        <v>232</v>
-      </c>
+      <c r="A374" s="0"/>
+      <c r="B374" s="0"/>
+      <c r="C374" s="0"/>
+      <c r="D374" s="15"/>
+      <c r="E374" s="0"/>
+      <c r="F374" s="0"/>
+      <c r="G374" s="0"/>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="14" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B375" s="7" t="s">
         <v>230</v>
@@ -8515,124 +8567,132 @@
       <c r="C375" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D375" s="7" t="s">
-        <v>367</v>
+      <c r="D375" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="E375" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F375" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G375" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="G375" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="B376" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C376" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D376" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E376" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F376" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G376" s="0"/>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="B377" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C377" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D377" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E377" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F377" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G377" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="B376" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C376" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D376" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="E376" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F376" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G376" s="0"/>
-    </row>
-    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="0"/>
-      <c r="B377" s="0"/>
-      <c r="C377" s="0"/>
-      <c r="D377" s="15"/>
-      <c r="E377" s="0"/>
-      <c r="F377" s="0"/>
-      <c r="G377" s="0"/>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="14" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B378" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C378" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D378" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E378" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F378" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G378" s="14" t="s">
-        <v>232</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D378" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="E378" s="7"/>
+      <c r="F378" s="7"/>
+      <c r="G378" s="0"/>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="14" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B379" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C379" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D379" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="E379" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F379" s="7" t="s">
-        <v>92</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="D379" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="E379" s="7"/>
+      <c r="F379" s="7"/>
       <c r="G379" s="0"/>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="B380" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C380" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D380" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="E380" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F380" s="7" t="s">
-        <v>90</v>
-      </c>
+      <c r="A380" s="0"/>
+      <c r="B380" s="0"/>
+      <c r="C380" s="0"/>
+      <c r="D380" s="15"/>
+      <c r="E380" s="0"/>
+      <c r="F380" s="0"/>
       <c r="G380" s="0"/>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="0"/>
-      <c r="B381" s="0"/>
-      <c r="C381" s="0"/>
-      <c r="D381" s="15"/>
-      <c r="E381" s="0"/>
-      <c r="F381" s="0"/>
-      <c r="G381" s="0"/>
+      <c r="A381" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="B381" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C381" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D381" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E381" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F381" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G381" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="14" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B382" s="7" t="s">
         <v>230</v>
@@ -8640,22 +8700,20 @@
       <c r="C382" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D382" s="13" t="s">
-        <v>231</v>
+      <c r="D382" s="7" t="s">
+        <v>369</v>
       </c>
       <c r="E382" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F382" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G382" s="14" t="s">
-        <v>232</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G382" s="0"/>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="14" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B383" s="7" t="s">
         <v>230</v>
@@ -8664,72 +8722,64 @@
         <v>11</v>
       </c>
       <c r="D383" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E383" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F383" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G383" s="0"/>
+        <v>90</v>
+      </c>
+      <c r="G383" s="19" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="14" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B384" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C384" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D384" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="E384" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F384" s="7" t="s">
-        <v>90</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D384" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="E384" s="7"/>
+      <c r="F384" s="7"/>
       <c r="G384" s="0"/>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="0"/>
-      <c r="B385" s="0"/>
-      <c r="C385" s="0"/>
-      <c r="D385" s="15"/>
-      <c r="E385" s="0"/>
-      <c r="F385" s="0"/>
+      <c r="A385" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="B385" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C385" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D385" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="E385" s="7"/>
+      <c r="F385" s="7"/>
       <c r="G385" s="0"/>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="B386" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C386" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D386" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E386" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F386" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G386" s="14" t="s">
-        <v>232</v>
-      </c>
+      <c r="A386" s="0"/>
+      <c r="B386" s="0"/>
+      <c r="C386" s="0"/>
+      <c r="D386" s="15"/>
+      <c r="E386" s="0"/>
+      <c r="F386" s="0"/>
+      <c r="G386" s="0"/>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="14" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B387" s="7" t="s">
         <v>230</v>
@@ -8737,124 +8787,132 @@
       <c r="C387" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D387" s="7" t="s">
-        <v>376</v>
+      <c r="D387" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="E387" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F387" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G387" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="G387" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="B388" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C388" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D388" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="E388" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F388" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G388" s="0"/>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="B389" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C389" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D389" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="E389" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F389" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G389" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="B388" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C388" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D388" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="E388" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F388" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G388" s="0"/>
-    </row>
-    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="0"/>
-      <c r="B389" s="0"/>
-      <c r="C389" s="0"/>
-      <c r="D389" s="15"/>
-      <c r="E389" s="0"/>
-      <c r="F389" s="0"/>
-      <c r="G389" s="0"/>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="14" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B390" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C390" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D390" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E390" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F390" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G390" s="14" t="s">
-        <v>232</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D390" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="E390" s="7"/>
+      <c r="F390" s="7"/>
+      <c r="G390" s="0"/>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="14" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B391" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C391" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D391" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="E391" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F391" s="7" t="s">
-        <v>92</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="D391" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E391" s="7"/>
+      <c r="F391" s="7"/>
       <c r="G391" s="0"/>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="B392" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C392" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D392" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="E392" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F392" s="7" t="s">
-        <v>90</v>
-      </c>
+      <c r="A392" s="0"/>
+      <c r="B392" s="0"/>
+      <c r="C392" s="0"/>
+      <c r="D392" s="15"/>
+      <c r="E392" s="0"/>
+      <c r="F392" s="0"/>
       <c r="G392" s="0"/>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="0"/>
-      <c r="B393" s="0"/>
-      <c r="C393" s="0"/>
-      <c r="D393" s="15"/>
-      <c r="E393" s="0"/>
-      <c r="F393" s="0"/>
-      <c r="G393" s="0"/>
+      <c r="A393" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="B393" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C393" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D393" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E393" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F393" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G393" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="14" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B394" s="7" t="s">
         <v>230</v>
@@ -8862,22 +8920,20 @@
       <c r="C394" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D394" s="13" t="s">
-        <v>231</v>
+      <c r="D394" s="7" t="s">
+        <v>378</v>
       </c>
       <c r="E394" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F394" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G394" s="14" t="s">
-        <v>232</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G394" s="0"/>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="14" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B395" s="7" t="s">
         <v>230</v>
@@ -8886,72 +8942,64 @@
         <v>11</v>
       </c>
       <c r="D395" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E395" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F395" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G395" s="0"/>
+        <v>90</v>
+      </c>
+      <c r="G395" s="19" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="B396" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C396" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D396" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="B396" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C396" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D396" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="E396" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F396" s="7" t="s">
-        <v>90</v>
-      </c>
+      <c r="E396" s="7"/>
+      <c r="F396" s="7"/>
       <c r="G396" s="0"/>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="0"/>
-      <c r="B397" s="0"/>
-      <c r="C397" s="0"/>
-      <c r="D397" s="15"/>
-      <c r="E397" s="0"/>
-      <c r="F397" s="0"/>
+      <c r="A397" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="B397" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C397" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D397" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="E397" s="7"/>
+      <c r="F397" s="7"/>
       <c r="G397" s="0"/>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="B398" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C398" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D398" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E398" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F398" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G398" s="14" t="s">
-        <v>232</v>
-      </c>
+      <c r="A398" s="0"/>
+      <c r="B398" s="0"/>
+      <c r="C398" s="0"/>
+      <c r="D398" s="15"/>
+      <c r="E398" s="0"/>
+      <c r="F398" s="0"/>
+      <c r="G398" s="0"/>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B399" s="7" t="s">
         <v>230</v>
@@ -8959,124 +9007,132 @@
       <c r="C399" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D399" s="7" t="s">
-        <v>385</v>
+      <c r="D399" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="E399" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F399" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G399" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="G399" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B400" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C400" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D400" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E400" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F400" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G400" s="0"/>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B401" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C401" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D401" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="B400" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C400" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D400" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E400" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F400" s="7" t="s">
+      <c r="E401" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F401" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G400" s="0"/>
-    </row>
-    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="0"/>
-      <c r="B401" s="0"/>
-      <c r="C401" s="0"/>
-      <c r="D401" s="15"/>
-      <c r="E401" s="0"/>
-      <c r="F401" s="0"/>
-      <c r="G401" s="0"/>
+      <c r="G401" s="19" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="14" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B402" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C402" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D402" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E402" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F402" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G402" s="14" t="s">
-        <v>232</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D402" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="E402" s="7"/>
+      <c r="F402" s="7"/>
+      <c r="G402" s="0"/>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="14" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B403" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C403" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D403" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="E403" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F403" s="7" t="s">
-        <v>92</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="D403" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="E403" s="7"/>
+      <c r="F403" s="7"/>
       <c r="G403" s="0"/>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="B404" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C404" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D404" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="E404" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F404" s="7" t="s">
-        <v>90</v>
-      </c>
+      <c r="A404" s="0"/>
+      <c r="B404" s="0"/>
+      <c r="C404" s="0"/>
+      <c r="D404" s="15"/>
+      <c r="E404" s="0"/>
+      <c r="F404" s="0"/>
       <c r="G404" s="0"/>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="0"/>
-      <c r="B405" s="0"/>
-      <c r="C405" s="0"/>
-      <c r="D405" s="15"/>
-      <c r="E405" s="0"/>
-      <c r="F405" s="0"/>
-      <c r="G405" s="0"/>
+      <c r="A405" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="B405" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C405" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D405" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E405" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F405" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G405" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="14" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B406" s="7" t="s">
         <v>230</v>
@@ -9084,102 +9140,523 @@
       <c r="C406" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D406" s="13" t="s">
-        <v>231</v>
+      <c r="D406" s="7" t="s">
+        <v>387</v>
       </c>
       <c r="E406" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F406" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G406" s="14" t="s">
-        <v>232</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G406" s="0"/>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="B407" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C407" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D407" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="E407" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F407" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G407" s="0"/>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="0"/>
+      <c r="B408" s="0"/>
+      <c r="C408" s="0"/>
+      <c r="D408" s="15"/>
+      <c r="E408" s="0"/>
+      <c r="F408" s="0"/>
+      <c r="G408" s="0"/>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="B409" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C409" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D409" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E409" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F409" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G409" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="B410" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C410" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D410" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="B407" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C407" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D407" s="7" t="s">
+      <c r="E410" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F410" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G410" s="0"/>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="B411" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C411" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D411" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="E407" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F407" s="7" t="s">
+      <c r="E411" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F411" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G411" s="0"/>
+    </row>
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="0"/>
+      <c r="B412" s="0"/>
+      <c r="C412" s="0"/>
+      <c r="D412" s="15"/>
+      <c r="E412" s="0"/>
+      <c r="F412" s="0"/>
+      <c r="G412" s="0"/>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="B413" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C413" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D413" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E413" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F413" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G413" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="B414" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C414" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D414" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="E414" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F414" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G407" s="0"/>
-    </row>
-    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="B408" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C408" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D408" s="7" t="s">
+      <c r="G414" s="0"/>
+    </row>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="E408" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F408" s="7" t="s">
+      <c r="B415" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C415" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D415" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="E415" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F415" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G408" s="0"/>
-    </row>
-    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="0"/>
-      <c r="B409" s="0"/>
-      <c r="C409" s="0"/>
-      <c r="D409" s="15"/>
-      <c r="E409" s="0"/>
-      <c r="F409" s="0"/>
-      <c r="G409" s="0"/>
-    </row>
-    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="B410" s="9"/>
-      <c r="C410" s="9"/>
-      <c r="D410" s="10"/>
-      <c r="E410" s="9"/>
-      <c r="F410" s="9"/>
-      <c r="G410" s="9"/>
-    </row>
-    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="B411" s="7" t="s">
+      <c r="G415" s="0"/>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="0"/>
+      <c r="B416" s="0"/>
+      <c r="C416" s="0"/>
+      <c r="D416" s="15"/>
+      <c r="E416" s="0"/>
+      <c r="F416" s="0"/>
+      <c r="G416" s="0"/>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="B417" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C417" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D417" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E417" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F417" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G417" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="B418" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C418" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D418" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="E418" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F418" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G418" s="0"/>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="B419" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C419" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D419" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="E419" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F419" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G419" s="0"/>
+    </row>
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="0"/>
+      <c r="B420" s="0"/>
+      <c r="C420" s="0"/>
+      <c r="D420" s="15"/>
+      <c r="E420" s="0"/>
+      <c r="F420" s="0"/>
+      <c r="G420" s="0"/>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="B421" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C421" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D421" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E421" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F421" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G421" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="B422" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C422" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D422" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="E422" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F422" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G422" s="0"/>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="B423" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C423" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D423" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E423" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F423" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G423" s="0"/>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="0"/>
+      <c r="B424" s="0"/>
+      <c r="C424" s="0"/>
+      <c r="D424" s="15"/>
+      <c r="E424" s="0"/>
+      <c r="F424" s="0"/>
+      <c r="G424" s="0"/>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="B425" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C425" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D425" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E425" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F425" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G425" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="B426" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C426" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D426" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E426" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F426" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G426" s="0"/>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="B427" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C427" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D427" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="E427" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F427" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G427" s="0"/>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="0"/>
+      <c r="B428" s="0"/>
+      <c r="C428" s="0"/>
+      <c r="D428" s="15"/>
+      <c r="E428" s="0"/>
+      <c r="F428" s="0"/>
+      <c r="G428" s="0"/>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="B429" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C429" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D429" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E429" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F429" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G429" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="B430" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C430" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D430" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="E430" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F430" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G430" s="0"/>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="B431" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C431" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D431" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="E431" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F431" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G431" s="0"/>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="0"/>
+      <c r="B432" s="0"/>
+      <c r="C432" s="0"/>
+      <c r="D432" s="15"/>
+      <c r="E432" s="0"/>
+      <c r="F432" s="0"/>
+      <c r="G432" s="0"/>
+    </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B433" s="9"/>
+      <c r="C433" s="9"/>
+      <c r="D433" s="10"/>
+      <c r="E433" s="9"/>
+      <c r="F433" s="9"/>
+      <c r="G433" s="9"/>
+    </row>
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B434" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C411" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D411" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="E411" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F411" s="7" t="s">
+      <c r="C434" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D434" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="E434" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F434" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G411" s="12" t="s">
-        <v>396</v>
+      <c r="G434" s="12" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>

--- a/python/multiscalepy/multiscale/modelcreator/models/glucose/glucose_annotations.xlsx
+++ b/python/multiscalepy/multiscale/modelcreator/models/glucose/glucose_annotations.xlsx
@@ -941,6 +941,60 @@
     <t>HO7P2</t>
   </si>
   <si>
+    <t>^co2[_]*\w*$</t>
+  </si>
+  <si>
+    <t>CHEBI:16526</t>
+  </si>
+  <si>
+    <t>carbon dioxide</t>
+  </si>
+  <si>
+    <t>C00011</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>^h[_]*\w*$</t>
+  </si>
+  <si>
+    <t>CHEBI:15378</t>
+  </si>
+  <si>
+    <t>hydron</t>
+  </si>
+  <si>
+    <t>C00080</t>
+  </si>
+  <si>
+    <t>H+</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>^h2[_]*\w*$</t>
+  </si>
+  <si>
+    <t>CHEBI:18276</t>
+  </si>
+  <si>
+    <t>dihydrogen</t>
+  </si>
+  <si>
+    <t>C00282</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
     <t>^h2o[_]*\w*$</t>
   </si>
   <si>
@@ -954,60 +1008,6 @@
   </si>
   <si>
     <t>H2O</t>
-  </si>
-  <si>
-    <t>^co2[_]*\w*$</t>
-  </si>
-  <si>
-    <t>CHEBI:16526</t>
-  </si>
-  <si>
-    <t>carbon dioxide</t>
-  </si>
-  <si>
-    <t>C00011</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>^h[_]*\w*$</t>
-  </si>
-  <si>
-    <t>CHEBI:15378</t>
-  </si>
-  <si>
-    <t>hydron</t>
-  </si>
-  <si>
-    <t>C00080</t>
-  </si>
-  <si>
-    <t>H+</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>+1</t>
-  </si>
-  <si>
-    <t>^h2[_]*\w*$</t>
-  </si>
-  <si>
-    <t>CHEBI:18276</t>
-  </si>
-  <si>
-    <t>dihydrogen</t>
-  </si>
-  <si>
-    <t>C00282</t>
-  </si>
-  <si>
-    <t>Hydrogen</t>
-  </si>
-  <si>
-    <t>H2</t>
   </si>
   <si>
     <t>^glc1p[_]*\w*$</t>
@@ -1566,8 +1566,8 @@
   </sheetPr>
   <dimension ref="A1:G457"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A412" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D453" activeCellId="0" sqref="D453"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A307" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A318" activeCellId="0" sqref="A318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -7761,7 +7761,7 @@
         <v>238</v>
       </c>
       <c r="D327" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E327" s="7"/>
       <c r="F327" s="7"/>
@@ -7778,24 +7778,24 @@
         <v>240</v>
       </c>
       <c r="D328" s="11" t="s">
-        <v>241</v>
+        <v>319</v>
       </c>
       <c r="E328" s="7"/>
       <c r="F328" s="7"/>
       <c r="G328" s="0"/>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="0"/>
-      <c r="B329" s="0"/>
-      <c r="C329" s="0"/>
-      <c r="D329" s="15"/>
-      <c r="E329" s="0"/>
-      <c r="F329" s="0"/>
+      <c r="A329" s="14"/>
+      <c r="B329" s="7"/>
+      <c r="C329" s="7"/>
+      <c r="D329" s="11"/>
+      <c r="E329" s="7"/>
+      <c r="F329" s="7"/>
       <c r="G329" s="0"/>
     </row>
     <row r="330" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="14" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B330" s="7" t="s">
         <v>231</v>
@@ -7818,7 +7818,7 @@
     </row>
     <row r="331" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="14" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B331" s="7" t="s">
         <v>231</v>
@@ -7827,7 +7827,7 @@
         <v>11</v>
       </c>
       <c r="D331" s="11" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E331" s="7" t="s">
         <v>22</v>
@@ -7836,12 +7836,12 @@
         <v>90</v>
       </c>
       <c r="G331" s="12" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="14" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B332" s="7" t="s">
         <v>231</v>
@@ -7850,7 +7850,7 @@
         <v>11</v>
       </c>
       <c r="D332" s="11" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E332" s="7" t="s">
         <v>22</v>
@@ -7859,12 +7859,12 @@
         <v>92</v>
       </c>
       <c r="G332" s="12" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="14" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B333" s="7" t="s">
         <v>231</v>
@@ -7873,7 +7873,7 @@
         <v>238</v>
       </c>
       <c r="D333" s="13" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E333" s="7"/>
       <c r="F333" s="7"/>
@@ -7881,7 +7881,7 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="14" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B334" s="7" t="s">
         <v>231</v>
@@ -7890,7 +7890,7 @@
         <v>240</v>
       </c>
       <c r="D334" s="11" t="s">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="E334" s="7"/>
       <c r="F334" s="7"/>
@@ -7907,7 +7907,7 @@
     </row>
     <row r="336" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B336" s="7" t="s">
         <v>231</v>
@@ -7930,7 +7930,7 @@
     </row>
     <row r="337" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B337" s="7" t="s">
         <v>231</v>
@@ -7939,7 +7939,7 @@
         <v>11</v>
       </c>
       <c r="D337" s="11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E337" s="7" t="s">
         <v>22</v>
@@ -7948,12 +7948,12 @@
         <v>90</v>
       </c>
       <c r="G337" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B338" s="7" t="s">
         <v>231</v>
@@ -7962,7 +7962,7 @@
         <v>11</v>
       </c>
       <c r="D338" s="11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E338" s="7" t="s">
         <v>22</v>
@@ -7971,12 +7971,12 @@
         <v>92</v>
       </c>
       <c r="G338" s="12" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B339" s="7" t="s">
         <v>231</v>
@@ -7993,7 +7993,7 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B340" s="7" t="s">
         <v>231</v>
@@ -8017,7 +8017,7 @@
       <c r="F341" s="0"/>
       <c r="G341" s="0"/>
     </row>
-    <row r="342" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="14" t="s">
         <v>331</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="14" t="s">
         <v>331</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="14" t="s">
         <v>331</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="14" t="s">
         <v>331</v>
       </c>
@@ -8129,7 +8129,7 @@
       <c r="F347" s="0"/>
       <c r="G347" s="0"/>
     </row>
-    <row r="348" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="14" t="s">
         <v>337</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="14" t="s">
         <v>337</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="14" t="s">
         <v>337</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="14" t="s">
         <v>337</v>
       </c>
@@ -8241,7 +8241,7 @@
       <c r="F353" s="0"/>
       <c r="G353" s="0"/>
     </row>
-    <row r="354" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="14" t="s">
         <v>343</v>
       </c>
@@ -8349,7 +8349,7 @@
       <c r="F359" s="0"/>
       <c r="G359" s="0"/>
     </row>
-    <row r="360" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="14" t="s">
         <v>346</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="14" t="s">
         <v>346</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="14" t="s">
         <v>346</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="14" t="s">
         <v>346</v>
       </c>
@@ -8461,7 +8461,7 @@
       <c r="F365" s="0"/>
       <c r="G365" s="0"/>
     </row>
-    <row r="366" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="14" t="s">
         <v>351</v>
       </c>
@@ -8505,7 +8505,7 @@
       </c>
       <c r="G367" s="0"/>
     </row>
-    <row r="368" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="14" t="s">
         <v>351</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="14" t="s">
         <v>351</v>
       </c>
@@ -8571,7 +8571,7 @@
       <c r="F371" s="0"/>
       <c r="G371" s="0"/>
     </row>
-    <row r="372" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="14" t="s">
         <v>355</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="14" t="s">
         <v>355</v>
       </c>
@@ -8681,7 +8681,7 @@
       <c r="F377" s="0"/>
       <c r="G377" s="0"/>
     </row>
-    <row r="378" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="14" t="s">
         <v>360</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="14" t="s">
         <v>397</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="14" t="s">
         <v>402</v>
       </c>
@@ -9781,7 +9781,7 @@
       <c r="F437" s="7"/>
       <c r="G437" s="0"/>
     </row>
-    <row r="438" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="14" t="s">
         <v>407</v>
       </c>

--- a/python/multiscalepy/multiscale/modelcreator/models/glucose/glucose_annotations.xlsx
+++ b/python/multiscalepy/multiscale/modelcreator/models/glucose/glucose_annotations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="427">
   <si>
     <t>pattern</t>
   </si>
@@ -1287,6 +1287,9 @@
   </si>
   <si>
     <t>^[\w_]*_tot$</t>
+  </si>
+  <si>
+    <t>rule</t>
   </si>
   <si>
     <t>SBO:0000359</t>
@@ -1566,8 +1569,8 @@
   </sheetPr>
   <dimension ref="A1:G457"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A307" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A318" activeCellId="0" sqref="A318"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A451" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B457" activeCellId="0" sqref="B457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -10127,13 +10130,13 @@
         <v>423</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>73</v>
+        <v>424</v>
       </c>
       <c r="C457" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D457" s="13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E457" s="7" t="s">
         <v>22</v>
@@ -10142,7 +10145,7 @@
         <v>14</v>
       </c>
       <c r="G457" s="12" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
